--- a/tests/integration_cases/expected/test_case6.xlsx
+++ b/tests/integration_cases/expected/test_case6.xlsx
@@ -50,10 +50,10 @@
     <t>PIBpm - Producto Interno Bruto a precios de mercado - VABpb - Valor Agregado Bruto a precios basicos - K - ACTIVIDADES INMOBILIARIAS, EMPRESARIALES Y DE ALQUILER</t>
   </si>
   <si>
-    <t>PIBpm - Producto Interno Bruto a precios de mercado - VABpb - Valor Agregado Bruto a precios basicos - L - ADMINISTRACION PÚBLICA Y DEFENSA; PLANES DE SEGURIDAD SOCIAL DE AFILIACION OBLIGATORIA</t>
+    <t>PIBpm - Producto Interno Bruto a precios de mercado - VABpb - Valor Agregado Bruto a precios basicos - L - ADMINISTRACION PUBLICA Y DEFENSA; PLANES DE SEGURIDAD SOCIAL DE AFILIACION OBLIGATORIA</t>
   </si>
   <si>
-    <t>PIBpm - Producto Interno Bruto a precios de mercado - VABpb - Valor Agregado Bruto a precios basicos - M - ENSEÑANZA</t>
+    <t>PIBpm - Producto Interno Bruto a precios de mercado - VABpb - Valor Agregado Bruto a precios basicos - M - ENSENANZA</t>
   </si>
   <si>
     <t>PIBpm - Producto Interno Bruto a precios de mercado - VABpb - Valor Agregado Bruto a precios basicos - N - SERVICIOS SOCIALES Y DE SALUD</t>
@@ -87,7 +87,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -99,12 +99,17 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Verdana"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -151,19 +156,19 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="4" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">

--- a/tests/integration_cases/expected/test_case6.xlsx
+++ b/tests/integration_cases/expected/test_case6.xlsx
@@ -1,93 +1,98 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId4"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId5"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>datetime</t>
   </si>
   <si>
-    <t>PIBpm - Producto Interno Bruto a precios de mercado - VABpb - Valor Agregado Bruto a precios basicos - A - AGRICULTURA ,GANADERIA,CAZA Y SILVICULTURA</t>
+    <t>AGRICULTURA ,GANADERIA,CAZA Y SILVICULTURA</t>
   </si>
   <si>
-    <t>PIBpm - Producto Interno Bruto a precios de mercado - VABpb - Valor Agregado Bruto a precios basicos - B - PESCA</t>
+    <t>PESCA</t>
   </si>
   <si>
-    <t>PIBpm - Producto Interno Bruto a precios de mercado - VABpb - Valor Agregado Bruto a precios basicos - C - EXPLOTACION DE MINAS Y CANTERAS</t>
+    <t>EXPLOTACION DE MINAS Y CANTERAS</t>
   </si>
   <si>
-    <t>PIBpm - Producto Interno Bruto a precios de mercado - VABpb - Valor Agregado Bruto a precios basicos - D - INDUSTRIAS MANUFACTURERAS</t>
+    <t>INDUSTRIAS MANUFACTURERAS</t>
   </si>
   <si>
-    <t>PIBpm - Producto Interno Bruto a precios de mercado - VABpb - Valor Agregado Bruto a precios basicos - E - SUMINISTRO DE ELECTRICIDAD , GAS y AGUA</t>
+    <t>SUMINISTRO DE ELECTRICIDAD , GAS y AGUA</t>
   </si>
   <si>
-    <t>PIBpm - Producto Interno Bruto a precios de mercado - VABpb - Valor Agregado Bruto a precios basicos - F - CONSTRUCCION</t>
+    <t>CONSTRUCCION</t>
   </si>
   <si>
-    <t>PIBpm - Producto Interno Bruto a precios de mercado - VABpb - Valor Agregado Bruto a precios basicos - G - COMERCIO MAYORISTA Y MINORISTA Y REPARACIONES</t>
+    <t>COMERCIO MAYORISTA Y MINORISTA Y REPARACIONES</t>
   </si>
   <si>
-    <t>PIBpm - Producto Interno Bruto a precios de mercado - VABpb - Valor Agregado Bruto a precios basicos - H - HOTELES Y RESTAURANTES</t>
+    <t>HOTELES Y RESTAURANTES</t>
   </si>
   <si>
-    <t>PIBpm - Producto Interno Bruto a precios de mercado - VABpb - Valor Agregado Bruto a precios basicos - I - TRANSPORTE Y COMUNICACIONES</t>
+    <t>TRANSPORTE Y COMUNICACIONES</t>
   </si>
   <si>
-    <t>PIBpm - Producto Interno Bruto a precios de mercado - VABpb - Valor Agregado Bruto a precios basicos - J - INTERMEDIACION FINANCIERA</t>
+    <t>INTERMEDIACION FINANCIERA</t>
   </si>
   <si>
-    <t>PIBpm - Producto Interno Bruto a precios de mercado - VABpb - Valor Agregado Bruto a precios basicos - K - ACTIVIDADES INMOBILIARIAS, EMPRESARIALES Y DE ALQUILER</t>
+    <t>ACTIVIDADES INMOBILIARIAS, EMPRESARIALES Y DE ALQUILER</t>
   </si>
   <si>
-    <t>PIBpm - Producto Interno Bruto a precios de mercado - VABpb - Valor Agregado Bruto a precios basicos - L - ADMINISTRACION PUBLICA Y DEFENSA; PLANES DE SEGURIDAD SOCIAL DE AFILIACION OBLIGATORIA</t>
+    <t>ADMINISTRACION PUBLICA Y DEFENSA; PLANES DE SEGURIDAD SOCIAL DE AFILIACION OBLIGATORIA</t>
   </si>
   <si>
-    <t>PIBpm - Producto Interno Bruto a precios de mercado - VABpb - Valor Agregado Bruto a precios basicos - M - ENSENANZA</t>
+    <t>ENSENANZA</t>
   </si>
   <si>
-    <t>PIBpm - Producto Interno Bruto a precios de mercado - VABpb - Valor Agregado Bruto a precios basicos - N - SERVICIOS SOCIALES Y DE SALUD</t>
+    <t>SERVICIOS SOCIALES Y DE SALUD</t>
   </si>
   <si>
-    <t>PIBpm - Producto Interno Bruto a precios de mercado - VABpb - Valor Agregado Bruto a precios basicos - O - OTRAS ACTIVIDADES DE SERVICIOS COMUNITARIAS, SOCIALES Y PERSONALES</t>
+    <t>OTRAS ACTIVIDADES DE SERVICIOS COMUNITARIAS, SOCIALES Y PERSONALES</t>
   </si>
   <si>
-    <t>PIBpm - Producto Interno Bruto a precios de mercado - VABpb - Valor Agregado Bruto a precios basicos - P - HOGARES PRIVADOS CON SERVICIOS DOMESTICOS</t>
+    <t>HOGARES PRIVADOS CON SERVICIOS DOMESTICOS</t>
   </si>
   <si>
-    <t>PIBpm - Producto Interno Bruto a precios de mercado - VABpb - Valor Agregado Bruto a precios basicos</t>
+    <t>Valor Agregado Bruto a precios basicos</t>
   </si>
   <si>
-    <t>PIBpm - Producto Interno Bruto a precios de mercado - IP - Impuestos a los productos netos de subsidios</t>
+    <t>Impuestos a los productos netos de subsidios</t>
   </si>
   <si>
-    <t>PIBpm - Producto Interno Bruto a precios de mercado - DI - Derechos de Importacion</t>
+    <t>Derechos de Importacion</t>
   </si>
   <si>
-    <t>PIBpm - Producto Interno Bruto a precios de mercado - IVA - Impuesto al Valor Agregado</t>
+    <t>Impuesto al Valor Agregado</t>
   </si>
   <si>
-    <t>PIBpm - Producto Interno Bruto a precios de mercado</t>
+    <t>Producto Interno Bruto a precios de mercado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -96,22 +101,24 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
       <name val="Verdana"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,55 +153,113 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="00DD0806"/>
+      <rgbColor rgb="001FB714"/>
+      <rgbColor rgb="000000D4"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -386,7 +451,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -395,7 +460,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -404,7 +469,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -413,7 +478,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -422,7 +487,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -431,7 +496,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -543,8 +608,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -552,14 +617,14 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -578,7 +643,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -586,7 +651,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -614,7 +679,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -640,7 +705,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -666,7 +731,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -692,7 +757,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -718,7 +783,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -744,7 +809,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -770,7 +835,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -796,7 +861,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -822,7 +887,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -835,9 +900,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -853,7 +924,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -872,7 +943,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -898,7 +969,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -924,7 +995,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -950,7 +1021,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -976,7 +1047,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1002,7 +1073,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1028,7 +1099,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1054,7 +1125,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1080,7 +1151,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1106,7 +1177,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1119,9 +1190,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1134,7 +1211,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1153,7 +1230,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1183,7 +1260,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1209,7 +1286,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1235,7 +1312,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1261,7 +1338,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1287,7 +1364,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1313,7 +1390,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1339,7 +1416,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1365,7 +1442,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1391,7 +1468,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1404,194 +1481,182 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:V11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:V1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.875" defaultRowHeight="14.65" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.875" defaultRowHeight="14.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="7.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="15.875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="15.875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="15.875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="15.875" style="1" customWidth="1"/>
-    <col min="23" max="256" width="15.875" style="1" customWidth="1"/>
+    <col min="2" max="256" width="15.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="146.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:22" ht="146.5" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="2">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="2">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s" s="2">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s" s="2">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s" s="2">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s" s="2">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s" s="2">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" ht="17" customHeight="1">
+    <row r="2" spans="1:22" ht="17" customHeight="1">
       <c r="A2" s="3">
         <v>37987</v>
       </c>
       <c r="B2" s="4">
-        <v>40983005.84568518</v>
+        <v>40983005.845685177</v>
       </c>
       <c r="C2" s="4">
         <v>1468794.578527905</v>
       </c>
       <c r="D2" s="4">
-        <v>26124971.00462379</v>
+        <v>26124971.004623789</v>
       </c>
       <c r="E2" s="4">
-        <v>106874395.9476893</v>
+        <v>106874395.94768929</v>
       </c>
       <c r="F2" s="4">
-        <v>8550445.980278404</v>
+        <v>8550445.9802784044</v>
       </c>
       <c r="G2" s="4">
         <v>21835385.44206601</v>
       </c>
       <c r="H2" s="4">
-        <v>64894589.74680653</v>
+        <v>64894589.746806532</v>
       </c>
       <c r="I2" s="4">
         <v>12106478.01324953</v>
       </c>
       <c r="J2" s="4">
-        <v>35845188.69038063</v>
+        <v>35845188.690380633</v>
       </c>
       <c r="K2" s="4">
         <v>13184853.44328806</v>
       </c>
       <c r="L2" s="4">
-        <v>63312674.24957225</v>
+        <v>63312674.249572247</v>
       </c>
       <c r="M2" s="4">
         <v>21788183.11867521</v>
       </c>
       <c r="N2" s="4">
-        <v>18752298.18178043</v>
+        <v>18752298.181780431</v>
       </c>
       <c r="O2" s="4">
         <v>13158939.40829763</v>
       </c>
       <c r="P2" s="4">
-        <v>15678988.51817388</v>
+        <v>15678988.518173881</v>
       </c>
       <c r="Q2" s="4">
-        <v>6621041.930817764</v>
+        <v>6621041.9308177643</v>
       </c>
       <c r="R2" s="4">
-        <v>471180234.0999126</v>
+        <v>471180234.09991258</v>
       </c>
       <c r="S2" s="4">
-        <v>30420699.76899157</v>
+        <v>30420699.768991571</v>
       </c>
       <c r="T2" s="4">
         <v>3250453.447629998</v>
       </c>
       <c r="U2" s="4">
-        <v>30976949.123732</v>
+        <v>30976949.123732001</v>
       </c>
       <c r="V2" s="4">
-        <v>535828336.4402663</v>
-      </c>
-    </row>
-    <row r="3" ht="17" customHeight="1">
+        <v>535828336.44026631</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="17" customHeight="1">
       <c r="A3" s="3">
         <v>38353</v>
       </c>
       <c r="B3" s="4">
-        <v>46094412.644499</v>
+        <v>46094412.644498996</v>
       </c>
       <c r="C3" s="4">
-        <v>1334982.772232452</v>
+        <v>1334982.7722324519</v>
       </c>
       <c r="D3" s="4">
         <v>25084572.42507511</v>
@@ -1600,66 +1665,66 @@
         <v>116799920.3945462</v>
       </c>
       <c r="F3" s="4">
-        <v>9044202.489655841</v>
+        <v>9044202.4896558411</v>
       </c>
       <c r="G3" s="4">
-        <v>25584354.11573044</v>
+        <v>25584354.115730438</v>
       </c>
       <c r="H3" s="4">
-        <v>72588031.56562822</v>
+        <v>72588031.565628216</v>
       </c>
       <c r="I3" s="4">
         <v>12134993.96778604</v>
       </c>
       <c r="J3" s="4">
-        <v>40432364.33010427</v>
+        <v>40432364.330104269</v>
       </c>
       <c r="K3" s="4">
-        <v>15061464.85826959</v>
+        <v>15061464.858269591</v>
       </c>
       <c r="L3" s="4">
-        <v>66491576.8784024</v>
+        <v>66491576.878402397</v>
       </c>
       <c r="M3" s="4">
-        <v>23172723.59373954</v>
+        <v>23172723.593739539</v>
       </c>
       <c r="N3" s="4">
-        <v>19831823.19950295</v>
+        <v>19831823.199502949</v>
       </c>
       <c r="O3" s="4">
         <v>14388896.55217506</v>
       </c>
       <c r="P3" s="4">
-        <v>18079782.49655372</v>
+        <v>18079782.496553719</v>
       </c>
       <c r="Q3" s="4">
-        <v>6919718.228947765</v>
+        <v>6919718.2289477652</v>
       </c>
       <c r="R3" s="4">
         <v>513043820.5128485</v>
       </c>
       <c r="S3" s="4">
-        <v>33317838.60242091</v>
+        <v>33317838.602420911</v>
       </c>
       <c r="T3" s="4">
-        <v>3905940.902878538</v>
+        <v>3905940.9028785378</v>
       </c>
       <c r="U3" s="4">
-        <v>34848846.84720646</v>
+        <v>34848846.847206458</v>
       </c>
       <c r="V3" s="4">
-        <v>585116446.8653544</v>
-      </c>
-    </row>
-    <row r="4" ht="17" customHeight="1">
+        <v>585116446.86535442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="17" customHeight="1">
       <c r="A4" s="3">
         <v>38718</v>
       </c>
       <c r="B4" s="4">
-        <v>47499039.6896098</v>
+        <v>47499039.689609803</v>
       </c>
       <c r="C4" s="4">
-        <v>2136858.58977107</v>
+        <v>2136858.5897710701</v>
       </c>
       <c r="D4" s="4">
         <v>26775064.73337457</v>
@@ -1668,368 +1733,368 @@
         <v>128207079.3217793</v>
       </c>
       <c r="F4" s="4">
-        <v>9562006.500000019</v>
+        <v>9562006.5000000186</v>
       </c>
       <c r="G4" s="4">
         <v>29595153.33946785</v>
       </c>
       <c r="H4" s="4">
-        <v>80499310.43527499</v>
+        <v>80499310.435274988</v>
       </c>
       <c r="I4" s="4">
         <v>12492929.91777782</v>
       </c>
       <c r="J4" s="4">
-        <v>44709007.13178252</v>
+        <v>44709007.131782517</v>
       </c>
       <c r="K4" s="4">
-        <v>17515290.77219824</v>
+        <v>17515290.772198241</v>
       </c>
       <c r="L4" s="4">
-        <v>70112593.84614614</v>
+        <v>70112593.846146137</v>
       </c>
       <c r="M4" s="4">
-        <v>24331923.60761555</v>
+        <v>24331923.607615549</v>
       </c>
       <c r="N4" s="4">
-        <v>20660595.09581528</v>
+        <v>20660595.095815279</v>
       </c>
       <c r="O4" s="4">
         <v>14778885.40701839</v>
       </c>
       <c r="P4" s="4">
-        <v>19960218.71447499</v>
+        <v>19960218.714474991</v>
       </c>
       <c r="Q4" s="4">
-        <v>7188238.313607693</v>
+        <v>7188238.3136076927</v>
       </c>
       <c r="R4" s="4">
-        <v>556024195.4157143</v>
+        <v>556024195.41571426</v>
       </c>
       <c r="S4" s="4">
-        <v>35540065.8768244</v>
+        <v>35540065.876824401</v>
       </c>
       <c r="T4" s="4">
-        <v>4483039.609829307</v>
+        <v>4483039.6098293066</v>
       </c>
       <c r="U4" s="4">
-        <v>38007843.25867616</v>
+        <v>38007843.258676156</v>
       </c>
       <c r="V4" s="4">
-        <v>634055144.1610441</v>
-      </c>
-    </row>
-    <row r="5" ht="17" customHeight="1">
+        <v>634055144.16104412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="17" customHeight="1">
       <c r="A5" s="3">
         <v>39083</v>
       </c>
       <c r="B5" s="4">
-        <v>50610713.15029667</v>
+        <v>50610713.150296673</v>
       </c>
       <c r="C5" s="4">
         <v>1920212.773101591</v>
       </c>
       <c r="D5" s="4">
-        <v>25114438.21173299</v>
+        <v>25114438.211732991</v>
       </c>
       <c r="E5" s="4">
         <v>138562037.3085115</v>
       </c>
       <c r="F5" s="4">
-        <v>10147199.44812012</v>
+        <v>10147199.448120121</v>
       </c>
       <c r="G5" s="4">
         <v>32508782.364246</v>
       </c>
       <c r="H5" s="4">
-        <v>90949387.12075558</v>
+        <v>90949387.120755583</v>
       </c>
       <c r="I5" s="4">
         <v>13579556.82749863</v>
       </c>
       <c r="J5" s="4">
-        <v>50203810.0129428</v>
+        <v>50203810.012942798</v>
       </c>
       <c r="K5" s="4">
         <v>20273347.03157099</v>
       </c>
       <c r="L5" s="4">
-        <v>73186322.74271818</v>
+        <v>73186322.742718175</v>
       </c>
       <c r="M5" s="4">
-        <v>25540026.51471882</v>
+        <v>25540026.514718819</v>
       </c>
       <c r="N5" s="4">
-        <v>21734239.78708615</v>
+        <v>21734239.787086152</v>
       </c>
       <c r="O5" s="4">
-        <v>15666878.99530582</v>
+        <v>15666878.995305819</v>
       </c>
       <c r="P5" s="4">
-        <v>21333074.16128293</v>
+        <v>21333074.161282931</v>
       </c>
       <c r="Q5" s="4">
-        <v>7516307.996523043</v>
+        <v>7516307.9965230431</v>
       </c>
       <c r="R5" s="4">
-        <v>598846334.4464116</v>
+        <v>598846334.44641161</v>
       </c>
       <c r="S5" s="4">
-        <v>38736740.22903784</v>
+        <v>38736740.229037844</v>
       </c>
       <c r="T5" s="4">
-        <v>5430874.82169007</v>
+        <v>5430874.8216900704</v>
       </c>
       <c r="U5" s="4">
-        <v>41783936.67617078</v>
+        <v>41783936.676170781</v>
       </c>
       <c r="V5" s="4">
         <v>684797886.1733104</v>
       </c>
     </row>
-    <row r="6" ht="17" customHeight="1">
+    <row r="6" spans="1:22" ht="17" customHeight="1">
       <c r="A6" s="3">
         <v>39448</v>
       </c>
       <c r="B6" s="4">
-        <v>44596694.84076829</v>
+        <v>44596694.840768293</v>
       </c>
       <c r="C6" s="4">
-        <v>2020509.715546782</v>
+        <v>2020509.7155467819</v>
       </c>
       <c r="D6" s="4">
-        <v>24535358.04693934</v>
+        <v>24535358.046939339</v>
       </c>
       <c r="E6" s="4">
-        <v>143020520.8897541</v>
+        <v>143020520.88975409</v>
       </c>
       <c r="F6" s="4">
-        <v>10384537.30781022</v>
+        <v>10384537.307810221</v>
       </c>
       <c r="G6" s="4">
-        <v>32996413.69251763</v>
+        <v>32996413.692517631</v>
       </c>
       <c r="H6" s="4">
-        <v>97822994.43591814</v>
+        <v>97822994.435918137</v>
       </c>
       <c r="I6" s="4">
-        <v>14666933.59365048</v>
+        <v>14666933.593650481</v>
       </c>
       <c r="J6" s="4">
-        <v>53437259.9819264</v>
+        <v>53437259.981926396</v>
       </c>
       <c r="K6" s="4">
-        <v>21903760.46242833</v>
+        <v>21903760.462428331</v>
       </c>
       <c r="L6" s="4">
-        <v>75826736.83230495</v>
+        <v>75826736.832304955</v>
       </c>
       <c r="M6" s="4">
-        <v>26721243.20075303</v>
+        <v>26721243.200753029</v>
       </c>
       <c r="N6" s="4">
         <v>22743343.62692916</v>
       </c>
       <c r="O6" s="4">
-        <v>16721858.64345158</v>
+        <v>16721858.643451581</v>
       </c>
       <c r="P6" s="4">
-        <v>22199561.97491985</v>
+        <v>22199561.974919848</v>
       </c>
       <c r="Q6" s="4">
-        <v>6787821.199190011</v>
+        <v>6787821.1991900112</v>
       </c>
       <c r="R6" s="4">
-        <v>616385548.4448082</v>
+        <v>616385548.44480824</v>
       </c>
       <c r="S6" s="4">
-        <v>38947933.98574899</v>
+        <v>38947933.985748991</v>
       </c>
       <c r="T6" s="4">
-        <v>6120354.678875964</v>
+        <v>6120354.6788759641</v>
       </c>
       <c r="U6" s="4">
         <v>44587254.99312371</v>
       </c>
       <c r="V6" s="4">
-        <v>706041092.1025569</v>
-      </c>
-    </row>
-    <row r="7" ht="17" customHeight="1">
+        <v>706041092.10255694</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="17" customHeight="1">
       <c r="A7" s="3">
         <v>39814</v>
       </c>
       <c r="B7" s="4">
-        <v>42303666.17572309</v>
+        <v>42303666.175723091</v>
       </c>
       <c r="C7" s="4">
-        <v>1618234.894744076</v>
+        <v>1618234.8947440761</v>
       </c>
       <c r="D7" s="4">
-        <v>25774471.23014404</v>
+        <v>25774471.230144039</v>
       </c>
       <c r="E7" s="4">
-        <v>140783536.6350395</v>
+        <v>140783536.63503951</v>
       </c>
       <c r="F7" s="4">
         <v>10259888.12492297</v>
       </c>
       <c r="G7" s="4">
-        <v>31769771.75000008</v>
+        <v>31769771.750000078</v>
       </c>
       <c r="H7" s="4">
-        <v>93725130.13541706</v>
+        <v>93725130.135417059</v>
       </c>
       <c r="I7" s="4">
-        <v>15635389.05776476</v>
+        <v>15635389.057764759</v>
       </c>
       <c r="J7" s="4">
-        <v>53168580.30543008</v>
+        <v>53168580.305430077</v>
       </c>
       <c r="K7" s="4">
         <v>23138579.54778276</v>
       </c>
       <c r="L7" s="4">
-        <v>77347145.45193478</v>
+        <v>77347145.451934785</v>
       </c>
       <c r="M7" s="4">
-        <v>27571257.00121984</v>
+        <v>27571257.001219839</v>
       </c>
       <c r="N7" s="4">
-        <v>23674885.67034313</v>
+        <v>23674885.670343131</v>
       </c>
       <c r="O7" s="4">
         <v>17920409.83796424</v>
       </c>
       <c r="P7" s="4">
-        <v>24017985.78973695</v>
+        <v>24017985.789736949</v>
       </c>
       <c r="Q7" s="4">
-        <v>7022321.248662787</v>
+        <v>7022321.2486627866</v>
       </c>
       <c r="R7" s="4">
-        <v>615731252.8568302</v>
+        <v>615731252.85683024</v>
       </c>
       <c r="S7" s="4">
-        <v>38499047.0356144</v>
+        <v>38499047.035614401</v>
       </c>
       <c r="T7" s="4">
         <v>4986751.713272444</v>
       </c>
       <c r="U7" s="4">
-        <v>47180681.7800154</v>
+        <v>47180681.780015402</v>
       </c>
       <c r="V7" s="4">
-        <v>706397733.3857324</v>
-      </c>
-    </row>
-    <row r="8" ht="17" customHeight="1">
+        <v>706397733.38573241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="17" customHeight="1">
       <c r="A8" s="3">
         <v>40179</v>
       </c>
       <c r="B8" s="4">
-        <v>49044106.10920758</v>
+        <v>49044106.109207578</v>
       </c>
       <c r="C8" s="4">
-        <v>1661063.669666051</v>
+        <v>1661063.6696660509</v>
       </c>
       <c r="D8" s="4">
-        <v>26361180.19000914</v>
+        <v>26361180.190009139</v>
       </c>
       <c r="E8" s="4">
-        <v>156816250.0936084</v>
+        <v>156816250.09360841</v>
       </c>
       <c r="F8" s="4">
-        <v>10677008.56616621</v>
+        <v>10677008.566166211</v>
       </c>
       <c r="G8" s="4">
-        <v>33654777.42052346</v>
+        <v>33654777.420523457</v>
       </c>
       <c r="H8" s="4">
-        <v>108163568.2233197</v>
+        <v>108163568.22331969</v>
       </c>
       <c r="I8" s="4">
         <v>17216812.90672937</v>
       </c>
       <c r="J8" s="4">
-        <v>58737842.98394069</v>
+        <v>58737842.983940691</v>
       </c>
       <c r="K8" s="4">
-        <v>25198183.12805847</v>
+        <v>25198183.128058471</v>
       </c>
       <c r="L8" s="4">
-        <v>81053682.66371498</v>
+        <v>81053682.663714975</v>
       </c>
       <c r="M8" s="4">
         <v>28850299.16983597</v>
       </c>
       <c r="N8" s="4">
-        <v>25084606.76104821</v>
+        <v>25084606.761048209</v>
       </c>
       <c r="O8" s="4">
-        <v>18801009.02308084</v>
+        <v>18801009.023080841</v>
       </c>
       <c r="P8" s="4">
         <v>24805491.35250558</v>
       </c>
       <c r="Q8" s="4">
-        <v>7061773.004486893</v>
+        <v>7061773.0044868933</v>
       </c>
       <c r="R8" s="4">
-        <v>673187655.2659014</v>
+        <v>673187655.26590145</v>
       </c>
       <c r="S8" s="4">
-        <v>40861853.5108182</v>
+        <v>40861853.510818198</v>
       </c>
       <c r="T8" s="4">
-        <v>6674854.142423853</v>
+        <v>6674854.1424238533</v>
       </c>
       <c r="U8" s="4">
-        <v>50211577.03848562</v>
+        <v>50211577.038485616</v>
       </c>
       <c r="V8" s="4">
         <v>770935939.9576292</v>
       </c>
     </row>
-    <row r="9" ht="17" customHeight="1">
+    <row r="9" spans="1:22" ht="17" customHeight="1">
       <c r="A9" s="3">
         <v>40544</v>
       </c>
       <c r="B9" s="4">
-        <v>47452298.92323951</v>
+        <v>47452298.923239507</v>
       </c>
       <c r="C9" s="4">
-        <v>1746740.317532011</v>
+        <v>1746740.3175320111</v>
       </c>
       <c r="D9" s="4">
-        <v>25945347.24755125</v>
+        <v>25945347.247551251</v>
       </c>
       <c r="E9" s="4">
-        <v>174754938.7247666</v>
+        <v>174754938.72476661</v>
       </c>
       <c r="F9" s="4">
         <v>11245879.05095841</v>
       </c>
       <c r="G9" s="4">
-        <v>36811786.76327604</v>
+        <v>36811786.763276041</v>
       </c>
       <c r="H9" s="4">
         <v>125681144.6900003</v>
       </c>
       <c r="I9" s="4">
-        <v>19093219.56698251</v>
+        <v>19093219.566982511</v>
       </c>
       <c r="J9" s="4">
-        <v>63600478.82793675</v>
+        <v>63600478.827936754</v>
       </c>
       <c r="K9" s="4">
         <v>30221812.48569493</v>
       </c>
       <c r="L9" s="4">
-        <v>84346021.87802215</v>
+        <v>84346021.878022149</v>
       </c>
       <c r="M9" s="4">
-        <v>29879556.5183085</v>
+        <v>29879556.518308502</v>
       </c>
       <c r="N9" s="4">
         <v>26291059.22393484</v>
@@ -2038,36 +2103,36 @@
         <v>19778665.48321541</v>
       </c>
       <c r="P9" s="4">
-        <v>26501796.50183407</v>
+        <v>26501796.501834068</v>
       </c>
       <c r="Q9" s="4">
         <v>7044443.587941139</v>
       </c>
       <c r="R9" s="4">
-        <v>730395189.7911946</v>
+        <v>730395189.79119456</v>
       </c>
       <c r="S9" s="4">
-        <v>42987702.71883518</v>
+        <v>42987702.718835182</v>
       </c>
       <c r="T9" s="4">
-        <v>8109538.933017571</v>
+        <v>8109538.9330175715</v>
       </c>
       <c r="U9" s="4">
-        <v>55396405.60010017</v>
+        <v>55396405.600100167</v>
       </c>
       <c r="V9" s="4">
-        <v>836888837.0431476</v>
-      </c>
-    </row>
-    <row r="10" ht="17" customHeight="1">
+        <v>836888837.04314756</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="17" customHeight="1">
       <c r="A10" s="3">
         <v>40909</v>
       </c>
       <c r="B10" s="4">
-        <v>44267023.41432115</v>
+        <v>44267023.414321147</v>
       </c>
       <c r="C10" s="4">
-        <v>1756109.60751187</v>
+        <v>1756109.6075118701</v>
       </c>
       <c r="D10" s="4">
         <v>25101558.78269669</v>
@@ -2079,66 +2144,66 @@
         <v>11584315.0695884</v>
       </c>
       <c r="G10" s="4">
-        <v>35871899.86882118</v>
+        <v>35871899.868821181</v>
       </c>
       <c r="H10" s="4">
-        <v>126891820.7075234</v>
+        <v>126891820.70752341</v>
       </c>
       <c r="I10" s="4">
         <v>20170143.48276525</v>
       </c>
       <c r="J10" s="4">
-        <v>64462763.00402802</v>
+        <v>64462763.004028022</v>
       </c>
       <c r="K10" s="4">
-        <v>35285734.37323129</v>
+        <v>35285734.373231292</v>
       </c>
       <c r="L10" s="4">
-        <v>84814987.74499336</v>
+        <v>84814987.744993359</v>
       </c>
       <c r="M10" s="4">
-        <v>31026112.11639581</v>
+        <v>31026112.116395809</v>
       </c>
       <c r="N10" s="4">
         <v>27440132.09978703</v>
       </c>
       <c r="O10" s="4">
-        <v>20617504.40538528</v>
+        <v>20617504.405385278</v>
       </c>
       <c r="P10" s="4">
-        <v>27400377.87236016</v>
+        <v>27400377.872360159</v>
       </c>
       <c r="Q10" s="4">
-        <v>7730224.156254113</v>
+        <v>7730224.1562541127</v>
       </c>
       <c r="R10" s="4">
-        <v>736405802.4230163</v>
+        <v>736405802.42301631</v>
       </c>
       <c r="S10" s="4">
         <v>42582580.69918289</v>
       </c>
       <c r="T10" s="4">
-        <v>7655340.961692645</v>
+        <v>7655340.9616926452</v>
       </c>
       <c r="U10" s="4">
-        <v>58163731.32563303</v>
+        <v>58163731.325633027</v>
       </c>
       <c r="V10" s="4">
-        <v>844807455.4095249</v>
-      </c>
-    </row>
-    <row r="11" ht="17" customHeight="1">
+        <v>844807455.40952492</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="17" customHeight="1">
       <c r="A11" s="3">
         <v>41275</v>
       </c>
       <c r="B11" s="4">
-        <v>48975775.08991416</v>
+        <v>48975775.089914158</v>
       </c>
       <c r="C11" s="4">
-        <v>2155796.35642875</v>
+        <v>2155796.3564287499</v>
       </c>
       <c r="D11" s="4">
-        <v>24707175.29121472</v>
+        <v>24707175.291214719</v>
       </c>
       <c r="E11" s="4">
         <v>171471367.9658854</v>
@@ -2147,233 +2212,219 @@
         <v>11918202.74153043</v>
       </c>
       <c r="G11" s="4">
-        <v>36777539.76610006</v>
+        <v>36777539.766100056</v>
       </c>
       <c r="H11" s="4">
         <v>129215360.2050783</v>
       </c>
       <c r="I11" s="4">
-        <v>21046448.29851704</v>
+        <v>21046448.298517041</v>
       </c>
       <c r="J11" s="4">
-        <v>66213233.09996235</v>
+        <v>66213233.099962354</v>
       </c>
       <c r="K11" s="4">
-        <v>42689262.27221125</v>
+        <v>42689262.272211254</v>
       </c>
       <c r="L11" s="4">
-        <v>85397034.42582694</v>
+        <v>85397034.425826937</v>
       </c>
       <c r="M11" s="4">
         <v>32122728.32414319</v>
       </c>
       <c r="N11" s="4">
-        <v>28373240.46954268</v>
+        <v>28373240.469542678</v>
       </c>
       <c r="O11" s="4">
-        <v>21305453.61108424</v>
+        <v>21305453.611084241</v>
       </c>
       <c r="P11" s="4">
         <v>28385141.47428377</v>
       </c>
       <c r="Q11" s="4">
-        <v>7927467.181709457</v>
+        <v>7927467.1817094572</v>
       </c>
       <c r="R11" s="4">
-        <v>758681226.5734327</v>
+        <v>758681226.57343268</v>
       </c>
       <c r="S11" s="4">
-        <v>42662697.46328338</v>
+        <v>42662697.463283382</v>
       </c>
       <c r="T11" s="4">
-        <v>7843288.883841464</v>
+        <v>7843288.8838414643</v>
       </c>
       <c r="U11" s="4">
         <v>60552256.99227231</v>
       </c>
       <c r="V11" s="4">
-        <v>869739469.9128299</v>
+        <v>869739469.91282988</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:V41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV41"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:V1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.875" defaultRowHeight="14.65" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.875" defaultRowHeight="14.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="7.875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="15.875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="15.875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="15.875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="15.875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="15.875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="15.875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="15.875" style="5" customWidth="1"/>
-    <col min="14" max="14" width="15.875" style="5" customWidth="1"/>
-    <col min="15" max="15" width="15.875" style="5" customWidth="1"/>
-    <col min="16" max="16" width="15.875" style="5" customWidth="1"/>
-    <col min="17" max="17" width="15.875" style="5" customWidth="1"/>
-    <col min="18" max="18" width="15.875" style="5" customWidth="1"/>
-    <col min="19" max="19" width="15.875" style="5" customWidth="1"/>
-    <col min="20" max="20" width="15.875" style="5" customWidth="1"/>
-    <col min="21" max="21" width="15.875" style="5" customWidth="1"/>
-    <col min="22" max="22" width="15.875" style="5" customWidth="1"/>
-    <col min="23" max="256" width="15.875" style="5" customWidth="1"/>
+    <col min="2" max="256" width="15.875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="146.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:22" ht="146.5" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="2">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="2">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s" s="2">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s" s="2">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s" s="2">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s" s="2">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s" s="2">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" ht="17" customHeight="1">
+    <row r="2" spans="1:22" ht="17" customHeight="1">
       <c r="A2" s="3">
         <v>37987</v>
       </c>
       <c r="B2" s="4">
-        <v>26094008.2327101</v>
+        <v>26094008.232710101</v>
       </c>
       <c r="C2" s="4">
-        <v>1369410.26248586</v>
+        <v>1369410.2624858599</v>
       </c>
       <c r="D2" s="4">
         <v>25596004.98158573</v>
       </c>
       <c r="E2" s="4">
-        <v>96893359.43789878</v>
+        <v>96893359.437898785</v>
       </c>
       <c r="F2" s="4">
-        <v>8487361.230278401</v>
+        <v>8487361.2302784007</v>
       </c>
       <c r="G2" s="4">
         <v>21188093.34826903</v>
       </c>
       <c r="H2" s="4">
-        <v>63897776.38471762</v>
+        <v>63897776.384717621</v>
       </c>
       <c r="I2" s="4">
         <v>13137752.90264626</v>
       </c>
       <c r="J2" s="4">
-        <v>33182782.80219735</v>
+        <v>33182782.802197348</v>
       </c>
       <c r="K2" s="4">
-        <v>12889690.82588588</v>
+        <v>12889690.825885881</v>
       </c>
       <c r="L2" s="4">
-        <v>61736299.72771808</v>
+        <v>61736299.727718078</v>
       </c>
       <c r="M2" s="4">
         <v>21165856.34770361</v>
       </c>
       <c r="N2" s="4">
-        <v>17842841.74239608</v>
+        <v>17842841.742396079</v>
       </c>
       <c r="O2" s="4">
-        <v>12385376.89173378</v>
+        <v>12385376.891733781</v>
       </c>
       <c r="P2" s="4">
-        <v>15027754.73946035</v>
+        <v>15027754.739460349</v>
       </c>
       <c r="Q2" s="4">
         <v>6579304.681740446</v>
       </c>
       <c r="R2" s="4">
-        <v>437473674.5394273</v>
+        <v>437473674.53942728</v>
       </c>
       <c r="S2" s="4">
-        <v>29860329.54623684</v>
+        <v>29860329.546236839</v>
       </c>
       <c r="T2" s="4">
-        <v>2732766.112257721</v>
+        <v>2732766.1122577209</v>
       </c>
       <c r="U2" s="4">
         <v>30724913.83918171</v>
       </c>
       <c r="V2" s="4">
-        <v>500791684.0371036</v>
-      </c>
-    </row>
-    <row r="3" ht="17" customHeight="1">
+        <v>500791684.03710359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="17" customHeight="1">
       <c r="A3" s="3">
         <v>38078</v>
       </c>
@@ -2384,31 +2435,31 @@
         <v>2174751.557453068</v>
       </c>
       <c r="D3" s="4">
-        <v>26373704.45062242</v>
+        <v>26373704.450622421</v>
       </c>
       <c r="E3" s="4">
         <v>106402786.2157069</v>
       </c>
       <c r="F3" s="4">
-        <v>8500971.230278404</v>
+        <v>8500971.2302784044</v>
       </c>
       <c r="G3" s="4">
         <v>20649980.02700603</v>
       </c>
       <c r="H3" s="4">
-        <v>65246671.50201253</v>
+        <v>65246671.502012528</v>
       </c>
       <c r="I3" s="4">
-        <v>11329032.47438557</v>
+        <v>11329032.474385571</v>
       </c>
       <c r="J3" s="4">
-        <v>37739138.51558743</v>
+        <v>37739138.515587427</v>
       </c>
       <c r="K3" s="4">
-        <v>12941203.07480435</v>
+        <v>12941203.074804351</v>
       </c>
       <c r="L3" s="4">
-        <v>63242109.02061985</v>
+        <v>63242109.020619847</v>
       </c>
       <c r="M3" s="4">
         <v>21663958.4780402</v>
@@ -2417,36 +2468,36 @@
         <v>18761903.11623155</v>
       </c>
       <c r="O3" s="4">
-        <v>13566278.45473664</v>
+        <v>13566278.454736641</v>
       </c>
       <c r="P3" s="4">
         <v>15681869.59832442</v>
       </c>
       <c r="Q3" s="4">
-        <v>6693768.729925475</v>
+        <v>6693768.7299254751</v>
       </c>
       <c r="R3" s="4">
-        <v>475636050.2147222</v>
+        <v>475636050.21472222</v>
       </c>
       <c r="S3" s="4">
-        <v>31585996.01665632</v>
+        <v>31585996.016656321</v>
       </c>
       <c r="T3" s="4">
-        <v>3169901.270155141</v>
+        <v>3169901.2701551411</v>
       </c>
       <c r="U3" s="4">
-        <v>30388128.30629491</v>
+        <v>30388128.306294911</v>
       </c>
       <c r="V3" s="4">
-        <v>540780075.8078285</v>
-      </c>
-    </row>
-    <row r="4" ht="17" customHeight="1">
+        <v>540780075.80782855</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="17" customHeight="1">
       <c r="A4" s="3">
         <v>38169</v>
       </c>
       <c r="B4" s="4">
-        <v>30956943.75586108</v>
+        <v>30956943.755861081</v>
       </c>
       <c r="C4" s="4">
         <v>1199623.079351478</v>
@@ -2458,63 +2509,63 @@
         <v>111286053.5330368</v>
       </c>
       <c r="F4" s="4">
-        <v>8684025.230278408</v>
+        <v>8684025.2302784082</v>
       </c>
       <c r="G4" s="4">
-        <v>22182222.866003</v>
+        <v>22182222.866002999</v>
       </c>
       <c r="H4" s="4">
-        <v>65064184.17168158</v>
+        <v>65064184.171681583</v>
       </c>
       <c r="I4" s="4">
         <v>11942918.14555789</v>
       </c>
       <c r="J4" s="4">
-        <v>35486455.72241297</v>
+        <v>35486455.722412974</v>
       </c>
       <c r="K4" s="4">
-        <v>13256150.72053931</v>
+        <v>13256150.720539309</v>
       </c>
       <c r="L4" s="4">
-        <v>63406931.37399291</v>
+        <v>63406931.373992912</v>
       </c>
       <c r="M4" s="4">
-        <v>22001956.81264894</v>
+        <v>22001956.812648941</v>
       </c>
       <c r="N4" s="4">
-        <v>18896827.98945785</v>
+        <v>18896827.989457849</v>
       </c>
       <c r="O4" s="4">
         <v>13655750.91386837</v>
       </c>
       <c r="P4" s="4">
-        <v>16318201.44514401</v>
+        <v>16318201.445144011</v>
       </c>
       <c r="Q4" s="4">
         <v>6572714.999786065</v>
       </c>
       <c r="R4" s="4">
-        <v>467299299.3628404</v>
+        <v>467299299.36284041</v>
       </c>
       <c r="S4" s="4">
-        <v>30010845.84903135</v>
+        <v>30010845.849031352</v>
       </c>
       <c r="T4" s="4">
-        <v>3451657.43815807</v>
+        <v>3451657.4381580702</v>
       </c>
       <c r="U4" s="4">
-        <v>31574030.71360579</v>
+        <v>31574030.713605791</v>
       </c>
       <c r="V4" s="4">
-        <v>532335833.3636355</v>
-      </c>
-    </row>
-    <row r="5" ht="17" customHeight="1">
+        <v>532335833.36363548</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="17" customHeight="1">
       <c r="A5" s="3">
         <v>38261</v>
       </c>
       <c r="B5" s="4">
-        <v>62213147.62518215</v>
+        <v>62213147.625182152</v>
       </c>
       <c r="C5" s="4">
         <v>1131393.414821215</v>
@@ -2526,46 +2577,46 @@
         <v>112915384.6041147</v>
       </c>
       <c r="F5" s="4">
-        <v>8529426.230278401</v>
+        <v>8529426.2302784007</v>
       </c>
       <c r="G5" s="4">
-        <v>23321245.52698597</v>
+        <v>23321245.526985969</v>
       </c>
       <c r="H5" s="4">
-        <v>65369726.92881441</v>
+        <v>65369726.928814411</v>
       </c>
       <c r="I5" s="4">
-        <v>12016208.53040837</v>
+        <v>12016208.530408369</v>
       </c>
       <c r="J5" s="4">
-        <v>36972377.72132476</v>
+        <v>36972377.721324757</v>
       </c>
       <c r="K5" s="4">
         <v>13652369.15192271</v>
       </c>
       <c r="L5" s="4">
-        <v>64865356.87595817</v>
+        <v>64865356.875958167</v>
       </c>
       <c r="M5" s="4">
-        <v>22320960.83630812</v>
+        <v>22320960.836308122</v>
       </c>
       <c r="N5" s="4">
-        <v>19507619.87903622</v>
+        <v>19507619.879036222</v>
       </c>
       <c r="O5" s="4">
         <v>13028351.37285172</v>
       </c>
       <c r="P5" s="4">
-        <v>15688128.28976675</v>
+        <v>15688128.289766749</v>
       </c>
       <c r="Q5" s="4">
         <v>6638379.31181907</v>
       </c>
       <c r="R5" s="4">
-        <v>504311912.2826599</v>
+        <v>504311912.28265989</v>
       </c>
       <c r="S5" s="4">
-        <v>30225627.66404177</v>
+        <v>30225627.664041769</v>
       </c>
       <c r="T5" s="4">
         <v>3647488.969949062</v>
@@ -2574,18 +2625,18 @@
         <v>31220723.63584559</v>
       </c>
       <c r="V5" s="4">
-        <v>569405752.5524963</v>
-      </c>
-    </row>
-    <row r="6" ht="17" customHeight="1">
+        <v>569405752.55249631</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="17" customHeight="1">
       <c r="A6" s="3">
         <v>38353</v>
       </c>
       <c r="B6" s="4">
-        <v>30829796.37029695</v>
+        <v>30829796.370296951</v>
       </c>
       <c r="C6" s="4">
-        <v>1308388.857658232</v>
+        <v>1308388.8576582321</v>
       </c>
       <c r="D6" s="4">
         <v>24256453.56664167</v>
@@ -2594,134 +2645,134 @@
         <v>105316085.2564057</v>
       </c>
       <c r="F6" s="4">
-        <v>8837007.686140783</v>
+        <v>8837007.6861407831</v>
       </c>
       <c r="G6" s="4">
         <v>22508216.14102805</v>
       </c>
       <c r="H6" s="4">
-        <v>69992782.40764329</v>
+        <v>69992782.407643288</v>
       </c>
       <c r="I6" s="4">
-        <v>13043130.62901318</v>
+        <v>13043130.629013181</v>
       </c>
       <c r="J6" s="4">
-        <v>37592159.38943166</v>
+        <v>37592159.389431663</v>
       </c>
       <c r="K6" s="4">
-        <v>14349016.03134217</v>
+        <v>14349016.031342169</v>
       </c>
       <c r="L6" s="4">
-        <v>63506304.06673899</v>
+        <v>63506304.066738993</v>
       </c>
       <c r="M6" s="4">
-        <v>22147232.79537025</v>
+        <v>22147232.795370251</v>
       </c>
       <c r="N6" s="4">
-        <v>19041047.47341643</v>
+        <v>19041047.473416429</v>
       </c>
       <c r="O6" s="4">
-        <v>13662967.83881349</v>
+        <v>13662967.838813489</v>
       </c>
       <c r="P6" s="4">
-        <v>17009894.79960925</v>
+        <v>17009894.799609251</v>
       </c>
       <c r="Q6" s="4">
-        <v>6630191.767227391</v>
+        <v>6630191.7672273908</v>
       </c>
       <c r="R6" s="4">
-        <v>470030675.0767775</v>
+        <v>470030675.07677752</v>
       </c>
       <c r="S6" s="4">
-        <v>32315354.5215767</v>
+        <v>32315354.521576699</v>
       </c>
       <c r="T6" s="4">
         <v>3329627.54735264</v>
       </c>
       <c r="U6" s="4">
-        <v>32957552.89121836</v>
+        <v>32957552.891218361</v>
       </c>
       <c r="V6" s="4">
-        <v>538633210.0369251</v>
-      </c>
-    </row>
-    <row r="7" ht="17" customHeight="1">
+        <v>538633210.03692508</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="17" customHeight="1">
       <c r="A7" s="3">
         <v>38443</v>
       </c>
       <c r="B7" s="4">
-        <v>61961585.32102413</v>
+        <v>61961585.321024127</v>
       </c>
       <c r="C7" s="4">
-        <v>2056219.847520782</v>
+        <v>2056219.8475207819</v>
       </c>
       <c r="D7" s="4">
-        <v>25572973.63249231</v>
+        <v>25572973.632492311</v>
       </c>
       <c r="E7" s="4">
-        <v>116465207.9361855</v>
+        <v>116465207.93618549</v>
       </c>
       <c r="F7" s="4">
-        <v>8917483.365304111</v>
+        <v>8917483.3653041106</v>
       </c>
       <c r="G7" s="4">
         <v>24255238.0077006</v>
       </c>
       <c r="H7" s="4">
-        <v>73373086.6983809</v>
+        <v>73373086.698380902</v>
       </c>
       <c r="I7" s="4">
         <v>11179424.89055202</v>
       </c>
       <c r="J7" s="4">
-        <v>42294095.90455156</v>
+        <v>42294095.904551558</v>
       </c>
       <c r="K7" s="4">
         <v>14515147.79523991</v>
       </c>
       <c r="L7" s="4">
-        <v>66634564.55045527</v>
+        <v>66634564.550455272</v>
       </c>
       <c r="M7" s="4">
-        <v>23113698.03522188</v>
+        <v>23113698.035221878</v>
       </c>
       <c r="N7" s="4">
-        <v>19817063.36204253</v>
+        <v>19817063.362042531</v>
       </c>
       <c r="O7" s="4">
-        <v>14812319.79149812</v>
+        <v>14812319.791498121</v>
       </c>
       <c r="P7" s="4">
-        <v>17595722.59023516</v>
+        <v>17595722.590235159</v>
       </c>
       <c r="Q7" s="4">
-        <v>6879270.020179477</v>
+        <v>6879270.0201794766</v>
       </c>
       <c r="R7" s="4">
-        <v>529443101.7485843</v>
+        <v>529443101.74858427</v>
       </c>
       <c r="S7" s="4">
-        <v>34791144.20384577</v>
+        <v>34791144.203845769</v>
       </c>
       <c r="T7" s="4">
-        <v>3919973.098896429</v>
+        <v>3919973.0988964289</v>
       </c>
       <c r="U7" s="4">
-        <v>34303327.79312047</v>
+        <v>34303327.793120474</v>
       </c>
       <c r="V7" s="4">
-        <v>602457546.844447</v>
-      </c>
-    </row>
-    <row r="8" ht="17" customHeight="1">
+        <v>602457546.84444702</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="17" customHeight="1">
       <c r="A8" s="3">
         <v>38534</v>
       </c>
       <c r="B8" s="4">
-        <v>30586195.41216112</v>
+        <v>30586195.412161119</v>
       </c>
       <c r="C8" s="4">
-        <v>830238.2127087414</v>
+        <v>830238.21270874143</v>
       </c>
       <c r="D8" s="4">
         <v>25581580.98839825</v>
@@ -2730,63 +2781,63 @@
         <v>120311975.2715514</v>
       </c>
       <c r="F8" s="4">
-        <v>9335719.884646649</v>
+        <v>9335719.8846466485</v>
       </c>
       <c r="G8" s="4">
-        <v>26542464.13792077</v>
+        <v>26542464.137920771</v>
       </c>
       <c r="H8" s="4">
-        <v>72918874.08397105</v>
+        <v>72918874.083971053</v>
       </c>
       <c r="I8" s="4">
         <v>11957704.79611058</v>
       </c>
       <c r="J8" s="4">
-        <v>40239110.67025168</v>
+        <v>40239110.670251682</v>
       </c>
       <c r="K8" s="4">
-        <v>15305759.75279081</v>
+        <v>15305759.752790811</v>
       </c>
       <c r="L8" s="4">
-        <v>67386598.82395928</v>
+        <v>67386598.823959276</v>
       </c>
       <c r="M8" s="4">
         <v>23297650.19884409</v>
       </c>
       <c r="N8" s="4">
-        <v>20018448.45400069</v>
+        <v>20018448.454000689</v>
       </c>
       <c r="O8" s="4">
         <v>14908015.55810187</v>
       </c>
       <c r="P8" s="4">
-        <v>19148064.95689519</v>
+        <v>19148064.956895191</v>
       </c>
       <c r="Q8" s="4">
-        <v>6994970.79625231</v>
+        <v>6994970.7962523103</v>
       </c>
       <c r="R8" s="4">
-        <v>505363371.9985644</v>
+        <v>505363371.99856442</v>
       </c>
       <c r="S8" s="4">
-        <v>33732588.56618035</v>
+        <v>33732588.566180348</v>
       </c>
       <c r="T8" s="4">
-        <v>4132342.846272289</v>
+        <v>4132342.8462722888</v>
       </c>
       <c r="U8" s="4">
-        <v>36145600.29692532</v>
+        <v>36145600.296925321</v>
       </c>
       <c r="V8" s="4">
-        <v>579373903.7079422</v>
-      </c>
-    </row>
-    <row r="9" ht="17" customHeight="1">
+        <v>579373903.70794225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="17" customHeight="1">
       <c r="A9" s="3">
         <v>38626</v>
       </c>
       <c r="B9" s="4">
-        <v>61000073.47451381</v>
+        <v>61000073.474513806</v>
       </c>
       <c r="C9" s="4">
         <v>1145084.171042054</v>
@@ -2798,58 +2849,58 @@
         <v>125106413.114042</v>
       </c>
       <c r="F9" s="4">
-        <v>9086599.02253182</v>
+        <v>9086599.0225318205</v>
       </c>
       <c r="G9" s="4">
-        <v>29031498.17627235</v>
+        <v>29031498.176272351</v>
       </c>
       <c r="H9" s="4">
-        <v>74067383.07251759</v>
+        <v>74067383.072517589</v>
       </c>
       <c r="I9" s="4">
         <v>12359715.55546838</v>
       </c>
       <c r="J9" s="4">
-        <v>41604091.35618215</v>
+        <v>41604091.356182151</v>
       </c>
       <c r="K9" s="4">
         <v>16075935.85370547</v>
       </c>
       <c r="L9" s="4">
-        <v>68438840.07245609</v>
+        <v>68438840.072456092</v>
       </c>
       <c r="M9" s="4">
-        <v>24132313.34552191</v>
+        <v>24132313.345521908</v>
       </c>
       <c r="N9" s="4">
-        <v>20450733.50855214</v>
+        <v>20450733.508552141</v>
       </c>
       <c r="O9" s="4">
-        <v>14172283.02028674</v>
+        <v>14172283.020286741</v>
       </c>
       <c r="P9" s="4">
         <v>18565447.63947529</v>
       </c>
       <c r="Q9" s="4">
-        <v>7174440.332131881</v>
+        <v>7174440.3321318813</v>
       </c>
       <c r="R9" s="4">
-        <v>547338133.2274678</v>
+        <v>547338133.22746778</v>
       </c>
       <c r="S9" s="4">
-        <v>32432267.11808082</v>
+        <v>32432267.118080821</v>
       </c>
       <c r="T9" s="4">
-        <v>4241820.118992794</v>
+        <v>4241820.1189927943</v>
       </c>
       <c r="U9" s="4">
-        <v>35988906.40756167</v>
+        <v>35988906.407561667</v>
       </c>
       <c r="V9" s="4">
         <v>620001126.8721031</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="1">
+    <row r="10" spans="1:22" ht="17" customHeight="1">
       <c r="A10" s="3">
         <v>38718</v>
       </c>
@@ -2857,7 +2908,7 @@
         <v>29608635.93428931</v>
       </c>
       <c r="C10" s="4">
-        <v>2099596.378880642</v>
+        <v>2099596.3788806419</v>
       </c>
       <c r="D10" s="4">
         <v>25017756.15846549</v>
@@ -2866,13 +2917,13 @@
         <v>116243778.3484745</v>
       </c>
       <c r="F10" s="4">
-        <v>9340180.000000017</v>
+        <v>9340180.0000000168</v>
       </c>
       <c r="G10" s="4">
-        <v>27201464.65146665</v>
+        <v>27201464.651466649</v>
       </c>
       <c r="H10" s="4">
-        <v>78366690.67909551</v>
+        <v>78366690.679095507</v>
       </c>
       <c r="I10" s="4">
         <v>13371332.08403042</v>
@@ -2884,48 +2935,48 @@
         <v>16674300.79361514</v>
       </c>
       <c r="L10" s="4">
-        <v>67299134.23004557</v>
+        <v>67299134.230045572</v>
       </c>
       <c r="M10" s="4">
-        <v>23774712.04320511</v>
+        <v>23774712.043205108</v>
       </c>
       <c r="N10" s="4">
         <v>19857911.74709899</v>
       </c>
       <c r="O10" s="4">
-        <v>14040703.16912656</v>
+        <v>14040703.169126561</v>
       </c>
       <c r="P10" s="4">
-        <v>19333851.65209029</v>
+        <v>19333851.652090289</v>
       </c>
       <c r="Q10" s="4">
-        <v>7047999.949508238</v>
+        <v>7047999.9495082377</v>
       </c>
       <c r="R10" s="4">
-        <v>510799654.8974654</v>
+        <v>510799654.89746541</v>
       </c>
       <c r="S10" s="4">
-        <v>34410872.4903757</v>
+        <v>34410872.490375698</v>
       </c>
       <c r="T10" s="4">
-        <v>3915255.878059204</v>
+        <v>3915255.8780592042</v>
       </c>
       <c r="U10" s="4">
-        <v>36757665.51064491</v>
+        <v>36757665.510644913</v>
       </c>
       <c r="V10" s="4">
-        <v>585883448.7765452</v>
-      </c>
-    </row>
-    <row r="11" ht="17" customHeight="1">
+        <v>585883448.77654517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="17" customHeight="1">
       <c r="A11" s="3">
         <v>38808</v>
       </c>
       <c r="B11" s="4">
-        <v>59602932.03159893</v>
+        <v>59602932.031598933</v>
       </c>
       <c r="C11" s="4">
-        <v>3189693.516765955</v>
+        <v>3189693.5167659549</v>
       </c>
       <c r="D11" s="4">
         <v>26596487.49429341</v>
@@ -2934,63 +2985,63 @@
         <v>128420176.6458315</v>
       </c>
       <c r="F11" s="4">
-        <v>9499912.000000019</v>
+        <v>9499912.0000000186</v>
       </c>
       <c r="G11" s="4">
-        <v>28755179.14754757</v>
+        <v>28755179.147547569</v>
       </c>
       <c r="H11" s="4">
-        <v>81269222.62797853</v>
+        <v>81269222.627978534</v>
       </c>
       <c r="I11" s="4">
         <v>11483592.12055485</v>
       </c>
       <c r="J11" s="4">
-        <v>46203538.07177676</v>
+        <v>46203538.071776763</v>
       </c>
       <c r="K11" s="4">
         <v>16756672.99476123</v>
       </c>
       <c r="L11" s="4">
-        <v>70420927.30962528</v>
+        <v>70420927.309625283</v>
       </c>
       <c r="M11" s="4">
-        <v>24237395.59317063</v>
+        <v>24237395.593170632</v>
       </c>
       <c r="N11" s="4">
-        <v>20640673.2114222</v>
+        <v>20640673.211422201</v>
       </c>
       <c r="O11" s="4">
         <v>15296034.36350929</v>
       </c>
       <c r="P11" s="4">
-        <v>19975058.41615951</v>
+        <v>19975058.416159511</v>
       </c>
       <c r="Q11" s="4">
-        <v>6901374.732438637</v>
+        <v>6901374.7324386369</v>
       </c>
       <c r="R11" s="4">
-        <v>569248870.2774343</v>
+        <v>569248870.27743435</v>
       </c>
       <c r="S11" s="4">
-        <v>37168734.09441964</v>
+        <v>37168734.094419643</v>
       </c>
       <c r="T11" s="4">
-        <v>4385396.002851027</v>
+        <v>4385396.0028510271</v>
       </c>
       <c r="U11" s="4">
-        <v>38120103.66370475</v>
+        <v>38120103.663704753</v>
       </c>
       <c r="V11" s="4">
-        <v>648923104.0384097</v>
-      </c>
-    </row>
-    <row r="12" ht="17" customHeight="1">
+        <v>648923104.03840971</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="17" customHeight="1">
       <c r="A12" s="3">
         <v>38899</v>
       </c>
       <c r="B12" s="4">
-        <v>33783477.14858159</v>
+        <v>33783477.148581587</v>
       </c>
       <c r="C12" s="4">
         <v>2017429.002141993</v>
@@ -3002,58 +3053,58 @@
         <v>132304841.797141</v>
       </c>
       <c r="F12" s="4">
-        <v>9796668.00000002</v>
+        <v>9796668.0000000205</v>
       </c>
       <c r="G12" s="4">
         <v>30623670.12083732</v>
       </c>
       <c r="H12" s="4">
-        <v>80518249.68356746</v>
+        <v>80518249.683567464</v>
       </c>
       <c r="I12" s="4">
         <v>12250197.64498866</v>
       </c>
       <c r="J12" s="4">
-        <v>44782901.46668735</v>
+        <v>44782901.466687351</v>
       </c>
       <c r="K12" s="4">
-        <v>17726230.25827939</v>
+        <v>17726230.258279391</v>
       </c>
       <c r="L12" s="4">
-        <v>71236692.82501225</v>
+        <v>71236692.825012252</v>
       </c>
       <c r="M12" s="4">
-        <v>24554676.39165044</v>
+        <v>24554676.391650438</v>
       </c>
       <c r="N12" s="4">
-        <v>20903766.0962218</v>
+        <v>20903766.096221801</v>
       </c>
       <c r="O12" s="4">
-        <v>15268335.24070868</v>
+        <v>15268335.240708681</v>
       </c>
       <c r="P12" s="4">
         <v>20856014.15618619</v>
       </c>
       <c r="Q12" s="4">
-        <v>7163785.930570481</v>
+        <v>7163785.9305704813</v>
       </c>
       <c r="R12" s="4">
-        <v>551573375.2195942</v>
+        <v>551573375.21959424</v>
       </c>
       <c r="S12" s="4">
-        <v>34935738.5321978</v>
+        <v>34935738.532197803</v>
       </c>
       <c r="T12" s="4">
-        <v>4751410.684970059</v>
+        <v>4751410.6849700594</v>
       </c>
       <c r="U12" s="4">
-        <v>39169740.56771844</v>
+        <v>39169740.567718439</v>
       </c>
       <c r="V12" s="4">
-        <v>630430265.0044805</v>
-      </c>
-    </row>
-    <row r="13" ht="17" customHeight="1">
+        <v>630430265.00448048</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="17" customHeight="1">
       <c r="A13" s="3">
         <v>38991</v>
       </c>
@@ -3061,90 +3112,90 @@
         <v>67001113.64396935</v>
       </c>
       <c r="C13" s="4">
-        <v>1240715.461295688</v>
+        <v>1240715.4612956881</v>
       </c>
       <c r="D13" s="4">
-        <v>27699575.82371981</v>
+        <v>27699575.823719811</v>
       </c>
       <c r="E13" s="4">
         <v>135859520.4956702</v>
       </c>
       <c r="F13" s="4">
-        <v>9611266.000000022</v>
+        <v>9611266.0000000224</v>
       </c>
       <c r="G13" s="4">
-        <v>31800299.43801986</v>
+        <v>31800299.438019861</v>
       </c>
       <c r="H13" s="4">
-        <v>81843078.75045843</v>
+        <v>81843078.750458434</v>
       </c>
       <c r="I13" s="4">
-        <v>12866597.82153735</v>
+        <v>12866597.821537349</v>
       </c>
       <c r="J13" s="4">
-        <v>46327981.91059306</v>
+        <v>46327981.910593063</v>
       </c>
       <c r="K13" s="4">
-        <v>18903959.04213719</v>
+        <v>18903959.042137191</v>
       </c>
       <c r="L13" s="4">
-        <v>71493621.01990147</v>
+        <v>71493621.019901469</v>
       </c>
       <c r="M13" s="4">
-        <v>24760910.40243603</v>
+        <v>24760910.402436029</v>
       </c>
       <c r="N13" s="4">
-        <v>21240029.32851812</v>
+        <v>21240029.328518119</v>
       </c>
       <c r="O13" s="4">
-        <v>14510468.85472902</v>
+        <v>14510468.854729019</v>
       </c>
       <c r="P13" s="4">
-        <v>19675950.63346395</v>
+        <v>19675950.633463949</v>
       </c>
       <c r="Q13" s="4">
-        <v>7639792.641913411</v>
+        <v>7639792.6419134112</v>
       </c>
       <c r="R13" s="4">
         <v>592474881.268363</v>
       </c>
       <c r="S13" s="4">
-        <v>35644918.39030448</v>
+        <v>35644918.390304483</v>
       </c>
       <c r="T13" s="4">
         <v>4880095.873436939</v>
       </c>
       <c r="U13" s="4">
-        <v>37983863.29263654</v>
+        <v>37983863.292636544</v>
       </c>
       <c r="V13" s="4">
-        <v>670983758.8247409</v>
-      </c>
-    </row>
-    <row r="14" ht="17" customHeight="1">
+        <v>670983758.82474089</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="17" customHeight="1">
       <c r="A14" s="3">
         <v>39083</v>
       </c>
       <c r="B14" s="4">
-        <v>32050204.74848062</v>
+        <v>32050204.748480622</v>
       </c>
       <c r="C14" s="4">
         <v>1787072.421503803</v>
       </c>
       <c r="D14" s="4">
-        <v>23893628.77652331</v>
+        <v>23893628.776523311</v>
       </c>
       <c r="E14" s="4">
-        <v>124463841.1318127</v>
+        <v>124463841.13181271</v>
       </c>
       <c r="F14" s="4">
-        <v>9868934.417859474</v>
+        <v>9868934.4178594742</v>
       </c>
       <c r="G14" s="4">
         <v>29782607.00000006</v>
       </c>
       <c r="H14" s="4">
-        <v>86387378.55977041</v>
+        <v>86387378.559770405</v>
       </c>
       <c r="I14" s="4">
         <v>14259539.56694074</v>
@@ -3153,111 +3204,111 @@
         <v>46575603.64014031</v>
       </c>
       <c r="K14" s="4">
-        <v>19604373.19915011</v>
+        <v>19604373.199150112</v>
       </c>
       <c r="L14" s="4">
-        <v>70511570.80533332</v>
+        <v>70511570.805333316</v>
       </c>
       <c r="M14" s="4">
-        <v>24902271.42141885</v>
+        <v>24902271.421418849</v>
       </c>
       <c r="N14" s="4">
-        <v>20987078.22275343</v>
+        <v>20987078.222753432</v>
       </c>
       <c r="O14" s="4">
         <v>14917651.37023971</v>
       </c>
       <c r="P14" s="4">
-        <v>20581860.36913856</v>
+        <v>20581860.369138561</v>
       </c>
       <c r="Q14" s="4">
         <v>7835767.359561841</v>
       </c>
       <c r="R14" s="4">
-        <v>548409383.0106272</v>
+        <v>548409383.01062715</v>
       </c>
       <c r="S14" s="4">
-        <v>35814666.22905605</v>
+        <v>35814666.229056053</v>
       </c>
       <c r="T14" s="4">
-        <v>4634697.320572464</v>
+        <v>4634697.3205724638</v>
       </c>
       <c r="U14" s="4">
-        <v>39419796.53976814</v>
+        <v>39419796.539768137</v>
       </c>
       <c r="V14" s="4">
-        <v>628278543.1000237</v>
-      </c>
-    </row>
-    <row r="15" ht="17" customHeight="1">
+        <v>628278543.10002375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="17" customHeight="1">
       <c r="A15" s="3">
         <v>39173</v>
       </c>
       <c r="B15" s="4">
-        <v>69146502.76877733</v>
+        <v>69146502.768777326</v>
       </c>
       <c r="C15" s="4">
-        <v>3322264.243927911</v>
+        <v>3322264.2439279109</v>
       </c>
       <c r="D15" s="4">
-        <v>25024249.94037777</v>
+        <v>25024249.940377772</v>
       </c>
       <c r="E15" s="4">
-        <v>137431750.1061344</v>
+        <v>137431750.10613441</v>
       </c>
       <c r="F15" s="4">
         <v>10214822.00000002</v>
       </c>
       <c r="G15" s="4">
-        <v>31459955.00000001</v>
+        <v>31459955.000000011</v>
       </c>
       <c r="H15" s="4">
         <v>89263315.06757462</v>
       </c>
       <c r="I15" s="4">
-        <v>12056879.61460607</v>
+        <v>12056879.614606069</v>
       </c>
       <c r="J15" s="4">
-        <v>52153893.87912799</v>
+        <v>52153893.879127987</v>
       </c>
       <c r="K15" s="4">
-        <v>19588583.21235103</v>
+        <v>19588583.212351032</v>
       </c>
       <c r="L15" s="4">
-        <v>73385323.12292963</v>
+        <v>73385323.122929633</v>
       </c>
       <c r="M15" s="4">
-        <v>25350908.75670172</v>
+        <v>25350908.756701719</v>
       </c>
       <c r="N15" s="4">
-        <v>21604252.54381224</v>
+        <v>21604252.543812241</v>
       </c>
       <c r="O15" s="4">
-        <v>16288232.3178889</v>
+        <v>16288232.317888901</v>
       </c>
       <c r="P15" s="4">
-        <v>21265475.07613718</v>
+        <v>21265475.076137181</v>
       </c>
       <c r="Q15" s="4">
-        <v>7429262.007316164</v>
+        <v>7429262.0073161637</v>
       </c>
       <c r="R15" s="4">
-        <v>614985669.657663</v>
+        <v>614985669.65766299</v>
       </c>
       <c r="S15" s="4">
-        <v>40062688.35046735</v>
+        <v>40062688.350467347</v>
       </c>
       <c r="T15" s="4">
-        <v>5043792.282832594</v>
+        <v>5043792.2828325937</v>
       </c>
       <c r="U15" s="4">
-        <v>40379656.23154055</v>
+        <v>40379656.231540553</v>
       </c>
       <c r="V15" s="4">
         <v>700471806.5225035</v>
       </c>
     </row>
-    <row r="16" ht="17" customHeight="1">
+    <row r="16" spans="1:22" ht="17" customHeight="1">
       <c r="A16" s="3">
         <v>39264</v>
       </c>
@@ -3265,10 +3316,10 @@
         <v>33085059.41113317</v>
       </c>
       <c r="C16" s="4">
-        <v>1660081.874923566</v>
+        <v>1660081.8749235659</v>
       </c>
       <c r="D16" s="4">
-        <v>25936719.48836694</v>
+        <v>25936719.488366939</v>
       </c>
       <c r="E16" s="4">
         <v>141960147.1942257</v>
@@ -3277,25 +3328,25 @@
         <v>10523098.42720837</v>
       </c>
       <c r="G16" s="4">
-        <v>33538202.23938256</v>
+        <v>33538202.239382561</v>
       </c>
       <c r="H16" s="4">
-        <v>91685192.09532329</v>
+        <v>91685192.095323294</v>
       </c>
       <c r="I16" s="4">
         <v>13411561.06932704</v>
       </c>
       <c r="J16" s="4">
-        <v>49954384.97392358</v>
+        <v>49954384.973923579</v>
       </c>
       <c r="K16" s="4">
         <v>20494656.09765077</v>
       </c>
       <c r="L16" s="4">
-        <v>73800334.14411561</v>
+        <v>73800334.144115612</v>
       </c>
       <c r="M16" s="4">
-        <v>25654836.50422104</v>
+        <v>25654836.504221041</v>
       </c>
       <c r="N16" s="4">
         <v>21952633.16608353</v>
@@ -3304,36 +3355,36 @@
         <v>16006533.23539174</v>
       </c>
       <c r="P16" s="4">
-        <v>22690887.91738985</v>
+        <v>22690887.917389851</v>
       </c>
       <c r="Q16" s="4">
         <v>7316190.155945925</v>
       </c>
       <c r="R16" s="4">
-        <v>589670517.9946127</v>
+        <v>589670517.99461269</v>
       </c>
       <c r="S16" s="4">
         <v>38679770.70289804</v>
       </c>
       <c r="T16" s="4">
-        <v>5926973.189629059</v>
+        <v>5926973.1896290593</v>
       </c>
       <c r="U16" s="4">
-        <v>43229857.75241378</v>
+        <v>43229857.752413779</v>
       </c>
       <c r="V16" s="4">
-        <v>677507119.6395535</v>
-      </c>
-    </row>
-    <row r="17" ht="17" customHeight="1">
+        <v>677507119.63955355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="17" customHeight="1">
       <c r="A17" s="3">
         <v>39356</v>
       </c>
       <c r="B17" s="4">
-        <v>68161085.67279552</v>
+        <v>68161085.672795519</v>
       </c>
       <c r="C17" s="4">
-        <v>911432.5520510825</v>
+        <v>911432.55205108249</v>
       </c>
       <c r="D17" s="4">
         <v>25603154.64166395</v>
@@ -3342,19 +3393,19 @@
         <v>150392410.8018733</v>
       </c>
       <c r="F17" s="4">
-        <v>9981942.947412627</v>
+        <v>9981942.9474126268</v>
       </c>
       <c r="G17" s="4">
-        <v>35254365.21760137</v>
+        <v>35254365.217601366</v>
       </c>
       <c r="H17" s="4">
-        <v>96461662.76035403</v>
+        <v>96461662.760354027</v>
       </c>
       <c r="I17" s="4">
-        <v>14590247.05912068</v>
+        <v>14590247.059120679</v>
       </c>
       <c r="J17" s="4">
-        <v>52131357.55857929</v>
+        <v>52131357.558579288</v>
       </c>
       <c r="K17" s="4">
         <v>21405775.61713206</v>
@@ -3366,7 +3417,7 @@
         <v>26252089.37653365</v>
       </c>
       <c r="N17" s="4">
-        <v>22392995.21569541</v>
+        <v>22392995.215695411</v>
       </c>
       <c r="O17" s="4">
         <v>15455099.05770294</v>
@@ -3375,78 +3426,78 @@
         <v>20794073.28246614</v>
       </c>
       <c r="Q17" s="4">
-        <v>7484012.463268245</v>
+        <v>7484012.4632682446</v>
       </c>
       <c r="R17" s="4">
-        <v>642319767.1227443</v>
+        <v>642319767.12274432</v>
       </c>
       <c r="S17" s="4">
-        <v>40389835.63372993</v>
+        <v>40389835.633729927</v>
       </c>
       <c r="T17" s="4">
-        <v>6118036.493726161</v>
+        <v>6118036.4937261613</v>
       </c>
       <c r="U17" s="4">
-        <v>44106436.18096066</v>
+        <v>44106436.180960663</v>
       </c>
       <c r="V17" s="4">
-        <v>732934075.431161</v>
-      </c>
-    </row>
-    <row r="18" ht="17" customHeight="1">
+        <v>732934075.43116105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="17" customHeight="1">
       <c r="A18" s="3">
         <v>39448</v>
       </c>
       <c r="B18" s="4">
-        <v>31170418.80984855</v>
+        <v>31170418.809848551</v>
       </c>
       <c r="C18" s="4">
-        <v>1205804.560455263</v>
+        <v>1205804.5604552629</v>
       </c>
       <c r="D18" s="4">
-        <v>23832212.11058618</v>
+        <v>23832212.110586181</v>
       </c>
       <c r="E18" s="4">
         <v>132113480.7790436</v>
       </c>
       <c r="F18" s="4">
-        <v>10162726.00000001</v>
+        <v>10162726.000000009</v>
       </c>
       <c r="G18" s="4">
-        <v>31969394.81458125</v>
+        <v>31969394.814581249</v>
       </c>
       <c r="H18" s="4">
-        <v>95671034.41197012</v>
+        <v>95671034.411970124</v>
       </c>
       <c r="I18" s="4">
-        <v>15548534.53865572</v>
+        <v>15548534.538655721</v>
       </c>
       <c r="J18" s="4">
-        <v>51187647.24505223</v>
+        <v>51187647.245052233</v>
       </c>
       <c r="K18" s="4">
         <v>21350236.8691856</v>
       </c>
       <c r="L18" s="4">
-        <v>73139080.42695202</v>
+        <v>73139080.426952019</v>
       </c>
       <c r="M18" s="4">
-        <v>26159836.47822141</v>
+        <v>26159836.478221409</v>
       </c>
       <c r="N18" s="4">
-        <v>22000708.33714001</v>
+        <v>22000708.337140009</v>
       </c>
       <c r="O18" s="4">
-        <v>15944602.00251904</v>
+        <v>15944602.002519039</v>
       </c>
       <c r="P18" s="4">
-        <v>21039239.79759972</v>
+        <v>21039239.797599722</v>
       </c>
       <c r="Q18" s="4">
-        <v>7164558.552213242</v>
+        <v>7164558.5522132423</v>
       </c>
       <c r="R18" s="4">
-        <v>579659515.7340238</v>
+        <v>579659515.73402381</v>
       </c>
       <c r="S18" s="4">
         <v>37756309.60951744</v>
@@ -3455,33 +3506,33 @@
         <v>5751389.173385133</v>
       </c>
       <c r="U18" s="4">
-        <v>42366340.2968613</v>
+        <v>42366340.296861298</v>
       </c>
       <c r="V18" s="4">
         <v>665533554.8137877</v>
       </c>
     </row>
-    <row r="19" ht="17" customHeight="1">
+    <row r="19" spans="1:22" ht="17" customHeight="1">
       <c r="A19" s="3">
         <v>39539</v>
       </c>
       <c r="B19" s="4">
-        <v>62568740.43245272</v>
+        <v>62568740.432452723</v>
       </c>
       <c r="C19" s="4">
-        <v>3574137.082605446</v>
+        <v>3574137.0826054462</v>
       </c>
       <c r="D19" s="4">
         <v>22787808.72354601</v>
       </c>
       <c r="E19" s="4">
-        <v>145216070.0215527</v>
+        <v>145216070.02155271</v>
       </c>
       <c r="F19" s="4">
         <v>10379332.00000002</v>
       </c>
       <c r="G19" s="4">
-        <v>33058928.70341946</v>
+        <v>33058928.703419462</v>
       </c>
       <c r="H19" s="4">
         <v>100480347.9900613</v>
@@ -3490,16 +3541,16 @@
         <v>13436657.68405816</v>
       </c>
       <c r="J19" s="4">
-        <v>55785850.09701282</v>
+        <v>55785850.097012818</v>
       </c>
       <c r="K19" s="4">
-        <v>21945318.94146145</v>
+        <v>21945318.941461451</v>
       </c>
       <c r="L19" s="4">
         <v>76671900.99038887</v>
       </c>
       <c r="M19" s="4">
-        <v>26596493.99353104</v>
+        <v>26596493.993531041</v>
       </c>
       <c r="N19" s="4">
         <v>22602318.20572963</v>
@@ -3508,48 +3559,48 @@
         <v>17464819.19456191</v>
       </c>
       <c r="P19" s="4">
-        <v>21645960.72899142</v>
+        <v>21645960.728991419</v>
       </c>
       <c r="Q19" s="4">
-        <v>6543263.072869239</v>
+        <v>6543263.0728692394</v>
       </c>
       <c r="R19" s="4">
         <v>640757947.8622421</v>
       </c>
       <c r="S19" s="4">
-        <v>38708172.7082096</v>
+        <v>38708172.708209597</v>
       </c>
       <c r="T19" s="4">
-        <v>6285442.48085721</v>
+        <v>6285442.4808572102</v>
       </c>
       <c r="U19" s="4">
         <v>45326737.95166447</v>
       </c>
       <c r="V19" s="4">
-        <v>731078301.0029734</v>
-      </c>
-    </row>
-    <row r="20" ht="17" customHeight="1">
+        <v>731078301.00297344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="17" customHeight="1">
       <c r="A20" s="3">
         <v>39630</v>
       </c>
       <c r="B20" s="4">
-        <v>31436601.35171288</v>
+        <v>31436601.351712879</v>
       </c>
       <c r="C20" s="4">
-        <v>2099258.471898472</v>
+        <v>2099258.4718984719</v>
       </c>
       <c r="D20" s="4">
         <v>26180833.0679968</v>
       </c>
       <c r="E20" s="4">
-        <v>151409154.0447974</v>
+        <v>151409154.04479739</v>
       </c>
       <c r="F20" s="4">
-        <v>10640504.23124083</v>
+        <v>10640504.231240829</v>
       </c>
       <c r="G20" s="4">
-        <v>33290173.65609696</v>
+        <v>33290173.656096961</v>
       </c>
       <c r="H20" s="4">
         <v>100707804.8908134</v>
@@ -3558,391 +3609,391 @@
         <v>14674446.85736518</v>
       </c>
       <c r="J20" s="4">
-        <v>53966939.1537452</v>
+        <v>53966939.153745197</v>
       </c>
       <c r="K20" s="4">
         <v>22206985.08818974</v>
       </c>
       <c r="L20" s="4">
-        <v>76713770.77992767</v>
+        <v>76713770.779927671</v>
       </c>
       <c r="M20" s="4">
-        <v>26986226.98008787</v>
+        <v>26986226.980087869</v>
       </c>
       <c r="N20" s="4">
         <v>23076238.02444711</v>
       </c>
       <c r="O20" s="4">
-        <v>17183927.67593194</v>
+        <v>17183927.675931942</v>
       </c>
       <c r="P20" s="4">
-        <v>23985868.77944727</v>
+        <v>23985868.779447269</v>
       </c>
       <c r="Q20" s="4">
         <v>6526354.122615397</v>
       </c>
       <c r="R20" s="4">
-        <v>621085087.1763141</v>
+        <v>621085087.17631412</v>
       </c>
       <c r="S20" s="4">
-        <v>41310514.01900508</v>
+        <v>41310514.019005083</v>
       </c>
       <c r="T20" s="4">
-        <v>6634289.854410039</v>
+        <v>6634289.8544100393</v>
       </c>
       <c r="U20" s="4">
-        <v>45948528.75600766</v>
+        <v>45948528.756007656</v>
       </c>
       <c r="V20" s="4">
         <v>714978419.8057369</v>
       </c>
     </row>
-    <row r="21" ht="17" customHeight="1">
+    <row r="21" spans="1:22" ht="17" customHeight="1">
       <c r="A21" s="3">
         <v>39722</v>
       </c>
       <c r="B21" s="4">
-        <v>53211018.76905899</v>
+        <v>53211018.769058987</v>
       </c>
       <c r="C21" s="4">
         <v>1202838.747227947</v>
       </c>
       <c r="D21" s="4">
-        <v>25340578.28562837</v>
+        <v>25340578.285628371</v>
       </c>
       <c r="E21" s="4">
         <v>143343378.7136229</v>
       </c>
       <c r="F21" s="4">
-        <v>10355587.00000001</v>
+        <v>10355587.000000009</v>
       </c>
       <c r="G21" s="4">
-        <v>33667157.59597284</v>
+        <v>33667157.595972843</v>
       </c>
       <c r="H21" s="4">
-        <v>94432790.45082773</v>
+        <v>94432790.450827733</v>
       </c>
       <c r="I21" s="4">
         <v>15008095.29452287</v>
       </c>
       <c r="J21" s="4">
-        <v>52808603.43189532</v>
+        <v>52808603.431895323</v>
       </c>
       <c r="K21" s="4">
         <v>22112500.95087653</v>
       </c>
       <c r="L21" s="4">
-        <v>76782195.1319513</v>
+        <v>76782195.131951302</v>
       </c>
       <c r="M21" s="4">
-        <v>27142415.35117183</v>
+        <v>27142415.351171829</v>
       </c>
       <c r="N21" s="4">
-        <v>23294109.94039989</v>
+        <v>23294109.940399889</v>
       </c>
       <c r="O21" s="4">
-        <v>16294085.70079345</v>
+        <v>16294085.700793451</v>
       </c>
       <c r="P21" s="4">
-        <v>22127178.59364099</v>
+        <v>22127178.593640991</v>
       </c>
       <c r="Q21" s="4">
-        <v>6917109.049062167</v>
+        <v>6917109.0490621673</v>
       </c>
       <c r="R21" s="4">
-        <v>624039643.0066532</v>
+        <v>624039643.00665319</v>
       </c>
       <c r="S21" s="4">
-        <v>38016739.60626386</v>
+        <v>38016739.606263861</v>
       </c>
       <c r="T21" s="4">
-        <v>5810297.206851478</v>
+        <v>5810297.2068514777</v>
       </c>
       <c r="U21" s="4">
-        <v>44707412.9679614</v>
+        <v>44707412.967961401</v>
       </c>
       <c r="V21" s="4">
-        <v>712574092.78773</v>
-      </c>
-    </row>
-    <row r="22" ht="17" customHeight="1">
+        <v>712574092.78772998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="17" customHeight="1">
       <c r="A22" s="3">
         <v>39814</v>
       </c>
       <c r="B22" s="4">
-        <v>26786536.69965228</v>
+        <v>26786536.699652281</v>
       </c>
       <c r="C22" s="4">
         <v>1051499.319446686</v>
       </c>
       <c r="D22" s="4">
-        <v>25409139.60067012</v>
+        <v>25409139.600670122</v>
       </c>
       <c r="E22" s="4">
         <v>126734332.3835949</v>
       </c>
       <c r="F22" s="4">
-        <v>10129463.77977587</v>
+        <v>10129463.779775869</v>
       </c>
       <c r="G22" s="4">
-        <v>30747672.00000009</v>
+        <v>30747672.000000089</v>
       </c>
       <c r="H22" s="4">
-        <v>91172388.20924303</v>
+        <v>91172388.209243029</v>
       </c>
       <c r="I22" s="4">
         <v>16225572.60642704</v>
       </c>
       <c r="J22" s="4">
-        <v>50309323.12858388</v>
+        <v>50309323.128583878</v>
       </c>
       <c r="K22" s="4">
-        <v>22796396.77069507</v>
+        <v>22796396.770695072</v>
       </c>
       <c r="L22" s="4">
-        <v>75690038.98316985</v>
+        <v>75690038.983169854</v>
       </c>
       <c r="M22" s="4">
-        <v>26789164.97840421</v>
+        <v>26789164.978404209</v>
       </c>
       <c r="N22" s="4">
-        <v>22868021.70776335</v>
+        <v>22868021.707763352</v>
       </c>
       <c r="O22" s="4">
-        <v>16987088.68114384</v>
+        <v>16987088.681143839</v>
       </c>
       <c r="P22" s="4">
-        <v>23153069.96566634</v>
+        <v>23153069.965666339</v>
       </c>
       <c r="Q22" s="4">
-        <v>7267784.721840694</v>
+        <v>7267784.7218406936</v>
       </c>
       <c r="R22" s="4">
-        <v>574117493.5360774</v>
+        <v>574117493.53607738</v>
       </c>
       <c r="S22" s="4">
-        <v>39737268.45522313</v>
+        <v>39737268.455223128</v>
       </c>
       <c r="T22" s="4">
-        <v>4340905.151749807</v>
+        <v>4340905.1517498074</v>
       </c>
       <c r="U22" s="4">
-        <v>44972106.64917745</v>
+        <v>44972106.649177447</v>
       </c>
       <c r="V22" s="4">
-        <v>663167773.7922277</v>
-      </c>
-    </row>
-    <row r="23" ht="17" customHeight="1">
+        <v>663167773.79222775</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="17" customHeight="1">
       <c r="A23" s="3">
         <v>39904</v>
       </c>
       <c r="B23" s="4">
-        <v>46053064.84590224</v>
+        <v>46053064.845902242</v>
       </c>
       <c r="C23" s="4">
-        <v>2209614.478900001</v>
+        <v>2209614.4789000009</v>
       </c>
       <c r="D23" s="4">
-        <v>25339777.11503783</v>
+        <v>25339777.115037829</v>
       </c>
       <c r="E23" s="4">
-        <v>138761395.6779692</v>
+        <v>138761395.67796919</v>
       </c>
       <c r="F23" s="4">
-        <v>10179443.12076331</v>
+        <v>10179443.120763309</v>
       </c>
       <c r="G23" s="4">
-        <v>30889880.00000007</v>
+        <v>30889880.000000071</v>
       </c>
       <c r="H23" s="4">
-        <v>90750952.05653086</v>
+        <v>90750952.056530863</v>
       </c>
       <c r="I23" s="4">
         <v>14621028.87713602</v>
       </c>
       <c r="J23" s="4">
-        <v>54247248.85441285</v>
+        <v>54247248.854412854</v>
       </c>
       <c r="K23" s="4">
-        <v>23146459.65577405</v>
+        <v>23146459.655774049</v>
       </c>
       <c r="L23" s="4">
-        <v>77644188.89034444</v>
+        <v>77644188.890344441</v>
       </c>
       <c r="M23" s="4">
-        <v>27005131.36112993</v>
+        <v>27005131.361129928</v>
       </c>
       <c r="N23" s="4">
         <v>23204967.37514082</v>
       </c>
       <c r="O23" s="4">
-        <v>18756231.18166756</v>
+        <v>18756231.181667559</v>
       </c>
       <c r="P23" s="4">
-        <v>23736693.68216577</v>
+        <v>23736693.682165772</v>
       </c>
       <c r="Q23" s="4">
-        <v>7114929.990359347</v>
+        <v>7114929.9903593473</v>
       </c>
       <c r="R23" s="4">
-        <v>613661007.1632342</v>
+        <v>613661007.16323423</v>
       </c>
       <c r="S23" s="4">
-        <v>40722042.4353321</v>
+        <v>40722042.435332097</v>
       </c>
       <c r="T23" s="4">
-        <v>4475134.648260085</v>
+        <v>4475134.6482600849</v>
       </c>
       <c r="U23" s="4">
-        <v>46552351.14669003</v>
+        <v>46552351.146690033</v>
       </c>
       <c r="V23" s="4">
-        <v>705410535.3935164</v>
-      </c>
-    </row>
-    <row r="24" ht="17" customHeight="1">
+        <v>705410535.39351642</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="17" customHeight="1">
       <c r="A24" s="3">
         <v>39995</v>
       </c>
       <c r="B24" s="4">
-        <v>29706303.44441179</v>
+        <v>29706303.444411792</v>
       </c>
       <c r="C24" s="4">
-        <v>1894461.509584328</v>
+        <v>1894461.5095843279</v>
       </c>
       <c r="D24" s="4">
-        <v>26246332.96297015</v>
+        <v>26246332.962970149</v>
       </c>
       <c r="E24" s="4">
-        <v>145707700.5446394</v>
+        <v>145707700.54463941</v>
       </c>
       <c r="F24" s="4">
         <v>10573928.61727478</v>
       </c>
       <c r="G24" s="4">
-        <v>32544815.00000009</v>
+        <v>32544815.000000089</v>
       </c>
       <c r="H24" s="4">
-        <v>95277976.06033392</v>
+        <v>95277976.060333923</v>
       </c>
       <c r="I24" s="4">
-        <v>15421091.22158187</v>
+        <v>15421091.221581871</v>
       </c>
       <c r="J24" s="4">
-        <v>52997054.11039148</v>
+        <v>52997054.110391483</v>
       </c>
       <c r="K24" s="4">
-        <v>23079654.47891246</v>
+        <v>23079654.478912462</v>
       </c>
       <c r="L24" s="4">
-        <v>77330689.68453117</v>
+        <v>77330689.684531167</v>
       </c>
       <c r="M24" s="4">
         <v>27997059.97740446</v>
       </c>
       <c r="N24" s="4">
-        <v>23981257.01333025</v>
+        <v>23981257.013330251</v>
       </c>
       <c r="O24" s="4">
-        <v>18480930.12358463</v>
+        <v>18480930.123584632</v>
       </c>
       <c r="P24" s="4">
-        <v>24814236.14636198</v>
+        <v>24814236.146361981</v>
       </c>
       <c r="Q24" s="4">
-        <v>6781905.040198284</v>
+        <v>6781905.0401982842</v>
       </c>
       <c r="R24" s="4">
-        <v>612835395.935511</v>
+        <v>612835395.93551099</v>
       </c>
       <c r="S24" s="4">
-        <v>36299794.89524388</v>
+        <v>36299794.895243883</v>
       </c>
       <c r="T24" s="4">
-        <v>5427014.237036578</v>
+        <v>5427014.2370365784</v>
       </c>
       <c r="U24" s="4">
-        <v>48101038.19357427</v>
+        <v>48101038.193574272</v>
       </c>
       <c r="V24" s="4">
-        <v>702663243.2613658</v>
-      </c>
-    </row>
-    <row r="25" ht="17" customHeight="1">
+        <v>702663243.26136577</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="17" customHeight="1">
       <c r="A25" s="3">
         <v>40087</v>
       </c>
       <c r="B25" s="4">
-        <v>66668759.71292607</v>
+        <v>66668759.712926067</v>
       </c>
       <c r="C25" s="4">
-        <v>1317364.27104529</v>
+        <v>1317364.2710452899</v>
       </c>
       <c r="D25" s="4">
         <v>26102635.24189806</v>
       </c>
       <c r="E25" s="4">
-        <v>151930717.9339544</v>
+        <v>151930717.93395439</v>
       </c>
       <c r="F25" s="4">
         <v>10156716.98187794</v>
       </c>
       <c r="G25" s="4">
-        <v>32896720.00000008</v>
+        <v>32896720.000000078</v>
       </c>
       <c r="H25" s="4">
-        <v>97699204.21556044</v>
+        <v>97699204.215560436</v>
       </c>
       <c r="I25" s="4">
-        <v>16273863.52591413</v>
+        <v>16273863.525914131</v>
       </c>
       <c r="J25" s="4">
-        <v>55120695.12833211</v>
+        <v>55120695.128332108</v>
       </c>
       <c r="K25" s="4">
-        <v>23531807.28574946</v>
+        <v>23531807.285749462</v>
       </c>
       <c r="L25" s="4">
-        <v>78723664.24969366</v>
+        <v>78723664.249693662</v>
       </c>
       <c r="M25" s="4">
-        <v>28493671.68794073</v>
+        <v>28493671.687940732</v>
       </c>
       <c r="N25" s="4">
         <v>24645296.58513809</v>
       </c>
       <c r="O25" s="4">
-        <v>17457389.36546093</v>
+        <v>17457389.365460929</v>
       </c>
       <c r="P25" s="4">
-        <v>24367943.36475372</v>
+        <v>24367943.364753719</v>
       </c>
       <c r="Q25" s="4">
-        <v>6924665.242252824</v>
+        <v>6924665.2422528239</v>
       </c>
       <c r="R25" s="4">
-        <v>662311114.7924979</v>
+        <v>662311114.79249787</v>
       </c>
       <c r="S25" s="4">
-        <v>37237082.35665849</v>
+        <v>37237082.356658489</v>
       </c>
       <c r="T25" s="4">
-        <v>5703952.816043305</v>
+        <v>5703952.8160433052</v>
       </c>
       <c r="U25" s="4">
-        <v>49097231.13061985</v>
+        <v>49097231.130619846</v>
       </c>
       <c r="V25" s="4">
-        <v>754349381.0958195</v>
-      </c>
-    </row>
-    <row r="26" ht="17" customHeight="1">
+        <v>754349381.09581947</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="17" customHeight="1">
       <c r="A26" s="3">
         <v>40179</v>
       </c>
       <c r="B26" s="4">
-        <v>29431490.94202902</v>
+        <v>29431490.942029022</v>
       </c>
       <c r="C26" s="4">
         <v>898330.2078408493</v>
@@ -3951,81 +4002,81 @@
         <v>25140266.99227893</v>
       </c>
       <c r="E26" s="4">
-        <v>137372651.4639916</v>
+        <v>137372651.46399161</v>
       </c>
       <c r="F26" s="4">
         <v>10606532.67347358</v>
       </c>
       <c r="G26" s="4">
-        <v>31598585.00000008</v>
+        <v>31598585.000000078</v>
       </c>
       <c r="H26" s="4">
-        <v>98267848.62804814</v>
+        <v>98267848.628048137</v>
       </c>
       <c r="I26" s="4">
-        <v>17495507.67433603</v>
+        <v>17495507.674336031</v>
       </c>
       <c r="J26" s="4">
-        <v>54058673.94617561</v>
+        <v>54058673.946175613</v>
       </c>
       <c r="K26" s="4">
-        <v>23914897.26905096</v>
+        <v>23914897.269050959</v>
       </c>
       <c r="L26" s="4">
-        <v>77264929.36925654</v>
+        <v>77264929.369256541</v>
       </c>
       <c r="M26" s="4">
         <v>28661850.17177847</v>
       </c>
       <c r="N26" s="4">
-        <v>24607364.529665</v>
+        <v>24607364.529665001</v>
       </c>
       <c r="O26" s="4">
         <v>17899115.08702457</v>
       </c>
       <c r="P26" s="4">
-        <v>24189548.5065289</v>
+        <v>24189548.506528899</v>
       </c>
       <c r="Q26" s="4">
-        <v>6598461.501412823</v>
+        <v>6598461.5014128229</v>
       </c>
       <c r="R26" s="4">
         <v>608006053.9628911</v>
       </c>
       <c r="S26" s="4">
-        <v>36289165.50794454</v>
+        <v>36289165.507944539</v>
       </c>
       <c r="T26" s="4">
-        <v>5346162.6001377</v>
+        <v>5346162.6001377003</v>
       </c>
       <c r="U26" s="4">
-        <v>47217434.38037907</v>
+        <v>47217434.380379073</v>
       </c>
       <c r="V26" s="4">
-        <v>696858816.4513525</v>
-      </c>
-    </row>
-    <row r="27" ht="17" customHeight="1">
+        <v>696858816.45135248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="17" customHeight="1">
       <c r="A27" s="3">
         <v>40269</v>
       </c>
       <c r="B27" s="4">
-        <v>66949073.26634517</v>
+        <v>66949073.266345173</v>
       </c>
       <c r="C27" s="4">
-        <v>2033552.887530187</v>
+        <v>2033552.8875301869</v>
       </c>
       <c r="D27" s="4">
-        <v>26653307.41079734</v>
+        <v>26653307.410797339</v>
       </c>
       <c r="E27" s="4">
-        <v>156077868.5636008</v>
+        <v>156077868.56360081</v>
       </c>
       <c r="F27" s="4">
-        <v>10439717.12988576</v>
+        <v>10439717.129885759</v>
       </c>
       <c r="G27" s="4">
-        <v>32551705.00000009</v>
+        <v>32551705.000000089</v>
       </c>
       <c r="H27" s="4">
         <v>105451837.5516634</v>
@@ -4034,54 +4085,54 @@
         <v>16087879.76941189</v>
       </c>
       <c r="J27" s="4">
-        <v>61217798.4953025</v>
+        <v>61217798.495302498</v>
       </c>
       <c r="K27" s="4">
-        <v>24969124.50777932</v>
+        <v>24969124.507779319</v>
       </c>
       <c r="L27" s="4">
         <v>82231346.77392064</v>
       </c>
       <c r="M27" s="4">
-        <v>28686290.15380719</v>
+        <v>28686290.153807189</v>
       </c>
       <c r="N27" s="4">
-        <v>25067870.31171392</v>
+        <v>25067870.311713919</v>
       </c>
       <c r="O27" s="4">
-        <v>19825855.70542978</v>
+        <v>19825855.705429781</v>
       </c>
       <c r="P27" s="4">
-        <v>24393423.73647506</v>
+        <v>24393423.736475062</v>
       </c>
       <c r="Q27" s="4">
-        <v>7057772.408209853</v>
+        <v>7057772.4082098529</v>
       </c>
       <c r="R27" s="4">
-        <v>689694423.6718729</v>
+        <v>689694423.67187285</v>
       </c>
       <c r="S27" s="4">
-        <v>44805499.17691472</v>
+        <v>44805499.176914722</v>
       </c>
       <c r="T27" s="4">
-        <v>6209761.328427577</v>
+        <v>6209761.3284275774</v>
       </c>
       <c r="U27" s="4">
-        <v>49848762.31788822</v>
+        <v>49848762.317888223</v>
       </c>
       <c r="V27" s="4">
-        <v>790558446.4951034</v>
-      </c>
-    </row>
-    <row r="28" ht="17" customHeight="1">
+        <v>790558446.49510336</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="17" customHeight="1">
       <c r="A28" s="3">
         <v>40360</v>
       </c>
       <c r="B28" s="4">
-        <v>30868351.56298473</v>
+        <v>30868351.562984731</v>
       </c>
       <c r="C28" s="4">
-        <v>2542835.167733094</v>
+        <v>2542835.1677330942</v>
       </c>
       <c r="D28" s="4">
         <v>27231580.68683929</v>
@@ -4090,58 +4141,58 @@
         <v>165335983.7947095</v>
       </c>
       <c r="F28" s="4">
-        <v>11166708.88452104</v>
+        <v>11166708.884521039</v>
       </c>
       <c r="G28" s="4">
-        <v>33984804.56065694</v>
+        <v>33984804.560656942</v>
       </c>
       <c r="H28" s="4">
         <v>112788885.0608401</v>
       </c>
       <c r="I28" s="4">
-        <v>17301530.98063887</v>
+        <v>17301530.980638869</v>
       </c>
       <c r="J28" s="4">
-        <v>59455413.21284834</v>
+        <v>59455413.212848343</v>
       </c>
       <c r="K28" s="4">
         <v>25027431.1356408</v>
       </c>
       <c r="L28" s="4">
-        <v>80928705.41116104</v>
+        <v>80928705.411161035</v>
       </c>
       <c r="M28" s="4">
-        <v>28854930.12891654</v>
+        <v>28854930.128916539</v>
       </c>
       <c r="N28" s="4">
         <v>25189981.27030142</v>
       </c>
       <c r="O28" s="4">
-        <v>19308371.39269224</v>
+        <v>19308371.392692242</v>
       </c>
       <c r="P28" s="4">
         <v>26093820.95560417</v>
       </c>
       <c r="Q28" s="4">
-        <v>7555548.801184893</v>
+        <v>7555548.8011848927</v>
       </c>
       <c r="R28" s="4">
-        <v>673634883.0072731</v>
+        <v>673634883.00727308</v>
       </c>
       <c r="S28" s="4">
-        <v>43046888.80389163</v>
+        <v>43046888.803891629</v>
       </c>
       <c r="T28" s="4">
-        <v>7442803.799355638</v>
+        <v>7442803.7993556382</v>
       </c>
       <c r="U28" s="4">
-        <v>52115528.35676182</v>
+        <v>52115528.356761821</v>
       </c>
       <c r="V28" s="4">
-        <v>776240103.9672822</v>
-      </c>
-    </row>
-    <row r="29" ht="17" customHeight="1">
+        <v>776240103.96728218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="17" customHeight="1">
       <c r="A29" s="3">
         <v>40452</v>
       </c>
@@ -4152,256 +4203,256 @@
         <v>1169536.415560073</v>
       </c>
       <c r="D29" s="4">
-        <v>26419565.67012103</v>
+        <v>26419565.670121029</v>
       </c>
       <c r="E29" s="4">
-        <v>168478496.5521317</v>
+        <v>168478496.55213171</v>
       </c>
       <c r="F29" s="4">
-        <v>10495075.57678447</v>
+        <v>10495075.576784469</v>
       </c>
       <c r="G29" s="4">
-        <v>36484015.12143671</v>
+        <v>36484015.121436708</v>
       </c>
       <c r="H29" s="4">
-        <v>116145701.652727</v>
+        <v>116145701.65272699</v>
       </c>
       <c r="I29" s="4">
-        <v>17982333.2025307</v>
+        <v>17982333.202530701</v>
       </c>
       <c r="J29" s="4">
-        <v>60219486.28143634</v>
+        <v>60219486.281436339</v>
       </c>
       <c r="K29" s="4">
-        <v>26881279.5997628</v>
+        <v>26881279.599762801</v>
       </c>
       <c r="L29" s="4">
-        <v>83789749.10052171</v>
+        <v>83789749.100521713</v>
       </c>
       <c r="M29" s="4">
         <v>29198126.22484171</v>
       </c>
       <c r="N29" s="4">
-        <v>25473210.93251249</v>
+        <v>25473210.932512488</v>
       </c>
       <c r="O29" s="4">
         <v>18170693.90717677</v>
       </c>
       <c r="P29" s="4">
-        <v>24545172.21141416</v>
+        <v>24545172.211414158</v>
       </c>
       <c r="Q29" s="4">
         <v>7035309.307140003</v>
       </c>
       <c r="R29" s="4">
-        <v>721415260.4215692</v>
+        <v>721415260.42156923</v>
       </c>
       <c r="S29" s="4">
-        <v>39305860.5545219</v>
+        <v>39305860.554521903</v>
       </c>
       <c r="T29" s="4">
-        <v>7700688.841774498</v>
+        <v>7700688.8417744981</v>
       </c>
       <c r="U29" s="4">
-        <v>51664583.09891336</v>
+        <v>51664583.098913357</v>
       </c>
       <c r="V29" s="4">
-        <v>820086392.9167789</v>
-      </c>
-    </row>
-    <row r="30" ht="17" customHeight="1">
+        <v>820086392.91677892</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="17" customHeight="1">
       <c r="A30" s="3">
         <v>40544</v>
       </c>
       <c r="B30" s="4">
-        <v>32944512.65771602</v>
+        <v>32944512.657716021</v>
       </c>
       <c r="C30" s="4">
-        <v>1143315.366965769</v>
+        <v>1143315.3669657691</v>
       </c>
       <c r="D30" s="4">
-        <v>25716366.21988407</v>
+        <v>25716366.219884071</v>
       </c>
       <c r="E30" s="4">
-        <v>156007998.9581906</v>
+        <v>156007998.95819059</v>
       </c>
       <c r="F30" s="4">
         <v>11075929.43448367</v>
       </c>
       <c r="G30" s="4">
-        <v>34585346.1100698</v>
+        <v>34585346.110069796</v>
       </c>
       <c r="H30" s="4">
         <v>117083372.8666254</v>
       </c>
       <c r="I30" s="4">
-        <v>19579131.10656705</v>
+        <v>19579131.106567051</v>
       </c>
       <c r="J30" s="4">
-        <v>59930457.84602895</v>
+        <v>59930457.846028946</v>
       </c>
       <c r="K30" s="4">
-        <v>27951103.13854696</v>
+        <v>27951103.138546959</v>
       </c>
       <c r="L30" s="4">
-        <v>80507933.62176722</v>
+        <v>80507933.621767223</v>
       </c>
       <c r="M30" s="4">
-        <v>29336127.4887068</v>
+        <v>29336127.488706801</v>
       </c>
       <c r="N30" s="4">
-        <v>25476200.56273831</v>
+        <v>25476200.562738311</v>
       </c>
       <c r="O30" s="4">
         <v>19062270.97039644</v>
       </c>
       <c r="P30" s="4">
-        <v>25315725.11506088</v>
+        <v>25315725.115060881</v>
       </c>
       <c r="Q30" s="4">
-        <v>6609288.94676743</v>
+        <v>6609288.9467674298</v>
       </c>
       <c r="R30" s="4">
-        <v>672325080.4105155</v>
+        <v>672325080.41051555</v>
       </c>
       <c r="S30" s="4">
-        <v>39763021.07009105</v>
+        <v>39763021.070091046</v>
       </c>
       <c r="T30" s="4">
-        <v>6978330.41128719</v>
+        <v>6978330.4112871904</v>
       </c>
       <c r="U30" s="4">
         <v>52304768.13205526</v>
       </c>
       <c r="V30" s="4">
-        <v>771371200.023949</v>
-      </c>
-    </row>
-    <row r="31" ht="17" customHeight="1">
+        <v>771371200.02394903</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="17" customHeight="1">
       <c r="A31" s="3">
         <v>40634</v>
       </c>
       <c r="B31" s="4">
-        <v>62104448.60851802</v>
+        <v>62104448.608518019</v>
       </c>
       <c r="C31" s="4">
-        <v>2069371.529393654</v>
+        <v>2069371.5293936541</v>
       </c>
       <c r="D31" s="4">
-        <v>24144353.31949986</v>
+        <v>24144353.319499861</v>
       </c>
       <c r="E31" s="4">
-        <v>178054925.3007882</v>
+        <v>178054925.30078819</v>
       </c>
       <c r="F31" s="4">
         <v>11196374.6708632</v>
       </c>
       <c r="G31" s="4">
-        <v>36196852.82560929</v>
+        <v>36196852.825609289</v>
       </c>
       <c r="H31" s="4">
         <v>123775701.9575908</v>
       </c>
       <c r="I31" s="4">
-        <v>17928343.94759892</v>
+        <v>17928343.947598919</v>
       </c>
       <c r="J31" s="4">
         <v>66778751.51553341</v>
       </c>
       <c r="K31" s="4">
-        <v>29422321.79590191</v>
+        <v>29422321.795901909</v>
       </c>
       <c r="L31" s="4">
-        <v>84890557.5163772</v>
+        <v>84890557.516377196</v>
       </c>
       <c r="M31" s="4">
-        <v>29591067.54625666</v>
+        <v>29591067.546256661</v>
       </c>
       <c r="N31" s="4">
         <v>26142592.91863225</v>
       </c>
       <c r="O31" s="4">
-        <v>21185446.19473854</v>
+        <v>21185446.194738541</v>
       </c>
       <c r="P31" s="4">
         <v>26175073.03730448</v>
       </c>
       <c r="Q31" s="4">
-        <v>7395610.823730611</v>
+        <v>7395610.8237306112</v>
       </c>
       <c r="R31" s="4">
-        <v>747051793.508337</v>
+        <v>747051793.50833702</v>
       </c>
       <c r="S31" s="4">
-        <v>45083805.26951373</v>
+        <v>45083805.269513734</v>
       </c>
       <c r="T31" s="4">
-        <v>7768305.487820023</v>
+        <v>7768305.4878200227</v>
       </c>
       <c r="U31" s="4">
-        <v>54638125.9529118</v>
+        <v>54638125.952911802</v>
       </c>
       <c r="V31" s="4">
-        <v>854542030.2185826</v>
-      </c>
-    </row>
-    <row r="32" ht="17" customHeight="1">
+        <v>854542030.21858263</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="17" customHeight="1">
       <c r="A32" s="3">
         <v>40725</v>
       </c>
       <c r="B32" s="4">
-        <v>31017150.28776021</v>
+        <v>31017150.287760209</v>
       </c>
       <c r="C32" s="4">
-        <v>2323273.332181058</v>
+        <v>2323273.3321810579</v>
       </c>
       <c r="D32" s="4">
-        <v>26519517.75337681</v>
+        <v>26519517.753376812</v>
       </c>
       <c r="E32" s="4">
-        <v>183231200.1775877</v>
+        <v>183231200.17758769</v>
       </c>
       <c r="F32" s="4">
-        <v>11752836.30056399</v>
+        <v>11752836.300563989</v>
       </c>
       <c r="G32" s="4">
-        <v>37636599.79695387</v>
+        <v>37636599.796953872</v>
       </c>
       <c r="H32" s="4">
         <v>129754456.5967973</v>
       </c>
       <c r="I32" s="4">
-        <v>19237785.62632888</v>
+        <v>19237785.626328882</v>
       </c>
       <c r="J32" s="4">
-        <v>63914888.18366886</v>
+        <v>63914888.183668859</v>
       </c>
       <c r="K32" s="4">
-        <v>31199788.80451792</v>
+        <v>31199788.804517921</v>
       </c>
       <c r="L32" s="4">
-        <v>83880556.66013218</v>
+        <v>83880556.660132185</v>
       </c>
       <c r="M32" s="4">
-        <v>30165716.27014518</v>
+        <v>30165716.270145182</v>
       </c>
       <c r="N32" s="4">
-        <v>26623740.80329079</v>
+        <v>26623740.803290792</v>
       </c>
       <c r="O32" s="4">
         <v>20010508.21375829</v>
       </c>
       <c r="P32" s="4">
-        <v>27555665.7167365</v>
+        <v>27555665.716736499</v>
       </c>
       <c r="Q32" s="4">
-        <v>7143669.29914411</v>
+        <v>7143669.2991441097</v>
       </c>
       <c r="R32" s="4">
-        <v>731967353.8229439</v>
+        <v>731967353.82294393</v>
       </c>
       <c r="S32" s="4">
-        <v>44561277.18414269</v>
+        <v>44561277.184142686</v>
       </c>
       <c r="T32" s="4">
         <v>8991133.455723742</v>
@@ -4410,48 +4461,48 @@
         <v>56481346.02739457</v>
       </c>
       <c r="V32" s="4">
-        <v>842001110.4902049</v>
-      </c>
-    </row>
-    <row r="33" ht="17" customHeight="1">
+        <v>842001110.49020493</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="17" customHeight="1">
       <c r="A33" s="3">
         <v>40817</v>
       </c>
       <c r="B33" s="4">
-        <v>63743084.13896377</v>
+        <v>63743084.138963766</v>
       </c>
       <c r="C33" s="4">
-        <v>1451001.041587561</v>
+        <v>1451001.0415875609</v>
       </c>
       <c r="D33" s="4">
-        <v>27401151.69744428</v>
+        <v>27401151.697444279</v>
       </c>
       <c r="E33" s="4">
-        <v>181725630.4625</v>
+        <v>181725630.46250001</v>
       </c>
       <c r="F33" s="4">
-        <v>10958375.7979228</v>
+        <v>10958375.797922799</v>
       </c>
       <c r="G33" s="4">
         <v>38828348.32047119</v>
       </c>
       <c r="H33" s="4">
-        <v>132111047.3389877</v>
+        <v>132111047.33898769</v>
       </c>
       <c r="I33" s="4">
         <v>19627617.58743519</v>
       </c>
       <c r="J33" s="4">
-        <v>63777817.76651578</v>
+        <v>63777817.766515777</v>
       </c>
       <c r="K33" s="4">
-        <v>32314036.20381293</v>
+        <v>32314036.203812931</v>
       </c>
       <c r="L33" s="4">
-        <v>88105039.71381195</v>
+        <v>88105039.713811949</v>
       </c>
       <c r="M33" s="4">
-        <v>30425314.76812536</v>
+        <v>30425314.768125359</v>
       </c>
       <c r="N33" s="4">
         <v>26921702.61107799</v>
@@ -4463,69 +4514,69 @@
         <v>26960722.13823444</v>
       </c>
       <c r="Q33" s="4">
-        <v>7029205.28212241</v>
+        <v>7029205.2821224099</v>
       </c>
       <c r="R33" s="4">
-        <v>770236531.4229817</v>
+        <v>770236531.42298174</v>
       </c>
       <c r="S33" s="4">
-        <v>42542707.35159325</v>
+        <v>42542707.351593249</v>
       </c>
       <c r="T33" s="4">
-        <v>8700386.377239328</v>
+        <v>8700386.3772393279</v>
       </c>
       <c r="U33" s="4">
-        <v>58161382.28803902</v>
+        <v>58161382.288039021</v>
       </c>
       <c r="V33" s="4">
-        <v>879641007.4398533</v>
-      </c>
-    </row>
-    <row r="34" ht="17" customHeight="1">
+        <v>879641007.43985331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="17" customHeight="1">
       <c r="A34" s="3">
         <v>40909</v>
       </c>
       <c r="B34" s="4">
-        <v>30749422.51923153</v>
+        <v>30749422.519231532</v>
       </c>
       <c r="C34" s="4">
         <v>1289758.48240585</v>
       </c>
       <c r="D34" s="4">
-        <v>24954400.25279069</v>
+        <v>24954400.252790689</v>
       </c>
       <c r="E34" s="4">
         <v>162529042.4809128</v>
       </c>
       <c r="F34" s="4">
-        <v>11625712.62366205</v>
+        <v>11625712.623662051</v>
       </c>
       <c r="G34" s="4">
-        <v>35918775.13469333</v>
+        <v>35918775.134693332</v>
       </c>
       <c r="H34" s="4">
         <v>123894189.473639</v>
       </c>
       <c r="I34" s="4">
-        <v>20953554.268451</v>
+        <v>20953554.268451001</v>
       </c>
       <c r="J34" s="4">
-        <v>61935990.44762021</v>
+        <v>61935990.447620213</v>
       </c>
       <c r="K34" s="4">
         <v>33091749.33278732</v>
       </c>
       <c r="L34" s="4">
-        <v>82932386.76453976</v>
+        <v>82932386.764539763</v>
       </c>
       <c r="M34" s="4">
-        <v>30688150.35112722</v>
+        <v>30688150.351127218</v>
       </c>
       <c r="N34" s="4">
-        <v>26888626.81369813</v>
+        <v>26888626.813698132</v>
       </c>
       <c r="O34" s="4">
-        <v>20040442.41971769</v>
+        <v>20040442.419717692</v>
       </c>
       <c r="P34" s="4">
         <v>26276238.97024969</v>
@@ -4534,22 +4585,22 @@
         <v>7387036.060873826</v>
       </c>
       <c r="R34" s="4">
-        <v>701155476.3964002</v>
+        <v>701155476.39640021</v>
       </c>
       <c r="S34" s="4">
-        <v>41466013.71701795</v>
+        <v>41466013.717017949</v>
       </c>
       <c r="T34" s="4">
         <v>7057395.262613765</v>
       </c>
       <c r="U34" s="4">
-        <v>56815745.31851901</v>
+        <v>56815745.318519011</v>
       </c>
       <c r="V34" s="4">
-        <v>806494630.6945509</v>
-      </c>
-    </row>
-    <row r="35" ht="17" customHeight="1">
+        <v>806494630.69455087</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="17" customHeight="1">
       <c r="A35" s="3">
         <v>41000</v>
       </c>
@@ -4560,16 +4611,16 @@
         <v>1703106.98294379</v>
       </c>
       <c r="D35" s="4">
-        <v>25109029.62522514</v>
+        <v>25109029.625225142</v>
       </c>
       <c r="E35" s="4">
-        <v>172241851.6338086</v>
+        <v>172241851.63380861</v>
       </c>
       <c r="F35" s="4">
-        <v>11248394.90803437</v>
+        <v>11248394.908034369</v>
       </c>
       <c r="G35" s="4">
-        <v>35156266.51074907</v>
+        <v>35156266.510749072</v>
       </c>
       <c r="H35" s="4">
         <v>121703282.6069659</v>
@@ -4581,48 +4632,48 @@
         <v>66516924.16055318</v>
       </c>
       <c r="K35" s="4">
-        <v>34187309.57224366</v>
+        <v>34187309.572243661</v>
       </c>
       <c r="L35" s="4">
-        <v>84634772.43793131</v>
+        <v>84634772.437931314</v>
       </c>
       <c r="M35" s="4">
-        <v>30936611.51692211</v>
+        <v>30936611.516922109</v>
       </c>
       <c r="N35" s="4">
-        <v>27392499.89439288</v>
+        <v>27392499.894392882</v>
       </c>
       <c r="O35" s="4">
         <v>22140100.39539253</v>
       </c>
       <c r="P35" s="4">
-        <v>27083357.64464759</v>
+        <v>27083357.644647591</v>
       </c>
       <c r="Q35" s="4">
-        <v>7879147.914566836</v>
+        <v>7879147.9145668363</v>
       </c>
       <c r="R35" s="4">
-        <v>733448767.4430513</v>
+        <v>733448767.44305134</v>
       </c>
       <c r="S35" s="4">
         <v>44156697.6967979</v>
       </c>
       <c r="T35" s="4">
-        <v>6739202.342461297</v>
+        <v>6739202.3424612973</v>
       </c>
       <c r="U35" s="4">
-        <v>57151278.78553388</v>
+        <v>57151278.785533883</v>
       </c>
       <c r="V35" s="4">
-        <v>841495946.2678444</v>
-      </c>
-    </row>
-    <row r="36" ht="17" customHeight="1">
+        <v>841495946.26784444</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="17" customHeight="1">
       <c r="A36" s="3">
         <v>41091</v>
       </c>
       <c r="B36" s="4">
-        <v>31826929.20290281</v>
+        <v>31826929.202902809</v>
       </c>
       <c r="C36" s="4">
         <v>2459021.246491815</v>
@@ -4631,13 +4682,13 @@
         <v>25388781.50318224</v>
       </c>
       <c r="E36" s="4">
-        <v>176692796.9417418</v>
+        <v>176692796.94174179</v>
       </c>
       <c r="F36" s="4">
-        <v>11975983.45382424</v>
+        <v>11975983.453824241</v>
       </c>
       <c r="G36" s="4">
-        <v>35680794.74588609</v>
+        <v>35680794.745886087</v>
       </c>
       <c r="H36" s="4">
         <v>128498219.9697037</v>
@@ -4646,51 +4697,51 @@
         <v>20139617.66174604</v>
       </c>
       <c r="J36" s="4">
-        <v>64375569.4075282</v>
+        <v>64375569.407528199</v>
       </c>
       <c r="K36" s="4">
-        <v>35660864.3337246</v>
+        <v>35660864.333724603</v>
       </c>
       <c r="L36" s="4">
         <v>84934029.22631897</v>
       </c>
       <c r="M36" s="4">
-        <v>31061508.53795453</v>
+        <v>31061508.537954532</v>
       </c>
       <c r="N36" s="4">
-        <v>27521323.2405804</v>
+        <v>27521323.240580399</v>
       </c>
       <c r="O36" s="4">
-        <v>20745276.98477724</v>
+        <v>20745276.984777238</v>
       </c>
       <c r="P36" s="4">
-        <v>28629235.94020263</v>
+        <v>28629235.940202631</v>
       </c>
       <c r="Q36" s="4">
-        <v>7680526.585365329</v>
+        <v>7680526.5853653289</v>
       </c>
       <c r="R36" s="4">
-        <v>733270478.9819306</v>
+        <v>733270478.98193061</v>
       </c>
       <c r="S36" s="4">
-        <v>43323441.89829694</v>
+        <v>43323441.898296937</v>
       </c>
       <c r="T36" s="4">
-        <v>8284626.24655908</v>
+        <v>8284626.2465590797</v>
       </c>
       <c r="U36" s="4">
-        <v>58535421.77553424</v>
+        <v>58535421.775534242</v>
       </c>
       <c r="V36" s="4">
-        <v>843413968.9023209</v>
-      </c>
-    </row>
-    <row r="37" ht="17" customHeight="1">
+        <v>843413968.90232086</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="17" customHeight="1">
       <c r="A37" s="3">
         <v>41183</v>
       </c>
       <c r="B37" s="4">
-        <v>67979592.3389342</v>
+        <v>67979592.338934198</v>
       </c>
       <c r="C37" s="4">
         <v>1572551.718206025</v>
@@ -4699,13 +4750,13 @@
         <v>24954023.74958868</v>
       </c>
       <c r="E37" s="4">
-        <v>176476691.8129506</v>
+        <v>176476691.81295061</v>
       </c>
       <c r="F37" s="4">
         <v>11487169.29283295</v>
       </c>
       <c r="G37" s="4">
-        <v>36731763.08395625</v>
+        <v>36731763.083956249</v>
       </c>
       <c r="H37" s="4">
         <v>133471590.7797849</v>
@@ -4714,46 +4765,46 @@
         <v>20583439.95840567</v>
       </c>
       <c r="J37" s="4">
-        <v>65022568.0004105</v>
+        <v>65022568.000410497</v>
       </c>
       <c r="K37" s="4">
-        <v>38203014.25416959</v>
+        <v>38203014.254169591</v>
       </c>
       <c r="L37" s="4">
-        <v>86758762.55118343</v>
+        <v>86758762.551183432</v>
       </c>
       <c r="M37" s="4">
-        <v>31418178.05957939</v>
+        <v>31418178.059579391</v>
       </c>
       <c r="N37" s="4">
         <v>27958078.45047671</v>
       </c>
       <c r="O37" s="4">
-        <v>19544197.82165364</v>
+        <v>19544197.821653642</v>
       </c>
       <c r="P37" s="4">
         <v>27612678.93434073</v>
       </c>
       <c r="Q37" s="4">
-        <v>7974186.064210461</v>
+        <v>7974186.0642104615</v>
       </c>
       <c r="R37" s="4">
-        <v>777748486.8706837</v>
+        <v>777748486.87068367</v>
       </c>
       <c r="S37" s="4">
-        <v>41384169.48461878</v>
+        <v>41384169.484618783</v>
       </c>
       <c r="T37" s="4">
-        <v>8540139.99513644</v>
+        <v>8540139.9951364398</v>
       </c>
       <c r="U37" s="4">
         <v>60152479.42294497</v>
       </c>
       <c r="V37" s="4">
-        <v>887825275.7733839</v>
-      </c>
-    </row>
-    <row r="38" ht="17" customHeight="1">
+        <v>887825275.77338386</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="17" customHeight="1">
       <c r="A38" s="3">
         <v>41275</v>
       </c>
@@ -4767,99 +4818,99 @@
         <v>24360952.53952457</v>
       </c>
       <c r="E38" s="4">
-        <v>159630515.7218832</v>
+        <v>159630515.72188321</v>
       </c>
       <c r="F38" s="4">
-        <v>11535311.14848471</v>
+        <v>11535311.148484711</v>
       </c>
       <c r="G38" s="4">
         <v>34836289.82583148</v>
       </c>
       <c r="H38" s="4">
-        <v>125302532.834147</v>
+        <v>125302532.83414701</v>
       </c>
       <c r="I38" s="4">
-        <v>21233350.77337089</v>
+        <v>21233350.773370892</v>
       </c>
       <c r="J38" s="4">
         <v>63200451.24250605</v>
       </c>
       <c r="K38" s="4">
-        <v>39530925.98185814</v>
+        <v>39530925.981858142</v>
       </c>
       <c r="L38" s="4">
-        <v>82628336.0092341</v>
+        <v>82628336.009234101</v>
       </c>
       <c r="M38" s="4">
-        <v>31637574.28338035</v>
+        <v>31637574.283380348</v>
       </c>
       <c r="N38" s="4">
-        <v>27759171.59356091</v>
+        <v>27759171.593560912</v>
       </c>
       <c r="O38" s="4">
         <v>20719403.86964884</v>
       </c>
       <c r="P38" s="4">
-        <v>27332567.0207244</v>
+        <v>27332567.020724401</v>
       </c>
       <c r="Q38" s="4">
-        <v>7555952.944893492</v>
+        <v>7555952.9448934924</v>
       </c>
       <c r="R38" s="4">
-        <v>711634582.6957688</v>
+        <v>711634582.69576883</v>
       </c>
       <c r="S38" s="4">
-        <v>39983573.99731757</v>
+        <v>39983573.997317567</v>
       </c>
       <c r="T38" s="4">
-        <v>7295974.472510058</v>
+        <v>7295974.4725100584</v>
       </c>
       <c r="U38" s="4">
-        <v>59523824.89108738</v>
+        <v>59523824.891087383</v>
       </c>
       <c r="V38" s="4">
         <v>818437956.0566839</v>
       </c>
     </row>
-    <row r="39" ht="17" customHeight="1">
+    <row r="39" spans="1:22" ht="17" customHeight="1">
       <c r="A39" s="3">
         <v>41365</v>
       </c>
       <c r="B39" s="4">
-        <v>62036079.82676107</v>
+        <v>62036079.826761067</v>
       </c>
       <c r="C39" s="4">
-        <v>2508373.958164206</v>
+        <v>2508373.9581642058</v>
       </c>
       <c r="D39" s="4">
-        <v>24798482.67664582</v>
+        <v>24798482.676645819</v>
       </c>
       <c r="E39" s="4">
-        <v>173255538.6491286</v>
+        <v>173255538.64912859</v>
       </c>
       <c r="F39" s="4">
         <v>11612060.77731424</v>
       </c>
       <c r="G39" s="4">
-        <v>36125030.74150174</v>
+        <v>36125030.741501741</v>
       </c>
       <c r="H39" s="4">
         <v>128030402.5637725</v>
       </c>
       <c r="I39" s="4">
-        <v>19752266.78543299</v>
+        <v>19752266.785432991</v>
       </c>
       <c r="J39" s="4">
-        <v>69244191.85866964</v>
+        <v>69244191.858669639</v>
       </c>
       <c r="K39" s="4">
-        <v>41888328.59004804</v>
+        <v>41888328.590048037</v>
       </c>
       <c r="L39" s="4">
-        <v>85262263.03029034</v>
+        <v>85262263.030290335</v>
       </c>
       <c r="M39" s="4">
-        <v>31866969.69629054</v>
+        <v>31866969.696290541</v>
       </c>
       <c r="N39" s="4">
         <v>28327753.32181903</v>
@@ -4871,45 +4922,45 @@
         <v>28250662.18606776</v>
       </c>
       <c r="Q39" s="4">
-        <v>8343917.694243051</v>
+        <v>8343917.6942430511</v>
       </c>
       <c r="R39" s="4">
-        <v>774152408.4061941</v>
+        <v>774152408.40619409</v>
       </c>
       <c r="S39" s="4">
-        <v>45940364.28885105</v>
+        <v>45940364.288851053</v>
       </c>
       <c r="T39" s="4">
-        <v>7805679.160864991</v>
+        <v>7805679.1608649911</v>
       </c>
       <c r="U39" s="4">
         <v>59634298.22631564</v>
       </c>
       <c r="V39" s="4">
-        <v>887532750.0822257</v>
-      </c>
-    </row>
-    <row r="40" ht="17" customHeight="1">
+        <v>887532750.08222568</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="17" customHeight="1">
       <c r="A40" s="3">
         <v>41456</v>
       </c>
       <c r="B40" s="4">
-        <v>32343759.77958483</v>
+        <v>32343759.779584829</v>
       </c>
       <c r="C40" s="4">
-        <v>2875685.008265944</v>
+        <v>2875685.0082659442</v>
       </c>
       <c r="D40" s="4">
-        <v>24885946.51288042</v>
+        <v>24885946.512880418</v>
       </c>
       <c r="E40" s="4">
-        <v>177430822.6737402</v>
+        <v>177430822.67374021</v>
       </c>
       <c r="F40" s="4">
-        <v>12480669.00588199</v>
+        <v>12480669.005881989</v>
       </c>
       <c r="G40" s="4">
-        <v>37619036.96117142</v>
+        <v>37619036.961171418</v>
       </c>
       <c r="H40" s="4">
         <v>132265538.3339005</v>
@@ -4918,57 +4969,57 @@
         <v>20901704.80226681</v>
       </c>
       <c r="J40" s="4">
-        <v>66539380.61700576</v>
+        <v>66539380.617005758</v>
       </c>
       <c r="K40" s="4">
-        <v>44093163.56211159</v>
+        <v>44093163.562111586</v>
       </c>
       <c r="L40" s="4">
-        <v>86121373.51420766</v>
+        <v>86121373.514207661</v>
       </c>
       <c r="M40" s="4">
-        <v>32802168.00122382</v>
+        <v>32802168.001223821</v>
       </c>
       <c r="N40" s="4">
-        <v>28527643.00684603</v>
+        <v>28527643.006846029</v>
       </c>
       <c r="O40" s="4">
-        <v>21435954.58749045</v>
+        <v>21435954.587490451</v>
       </c>
       <c r="P40" s="4">
         <v>29469774.12343977</v>
       </c>
       <c r="Q40" s="4">
-        <v>7777419.715571449</v>
+        <v>7777419.7155714491</v>
       </c>
       <c r="R40" s="4">
-        <v>757570040.2055886</v>
+        <v>757570040.20558858</v>
       </c>
       <c r="S40" s="4">
-        <v>44784050.95010101</v>
+        <v>44784050.950101011</v>
       </c>
       <c r="T40" s="4">
-        <v>8453151.560053606</v>
+        <v>8453151.5600536056</v>
       </c>
       <c r="U40" s="4">
-        <v>62347272.9494407</v>
+        <v>62347272.949440703</v>
       </c>
       <c r="V40" s="4">
         <v>873154515.6651839</v>
       </c>
     </row>
-    <row r="41" ht="17" customHeight="1">
+    <row r="41" spans="1:22" ht="17" customHeight="1">
       <c r="A41" s="3">
         <v>41548</v>
       </c>
       <c r="B41" s="4">
-        <v>68436900.41388509</v>
+        <v>68436900.413885087</v>
       </c>
       <c r="C41" s="4">
-        <v>1954239.891989837</v>
+        <v>1954239.8919898369</v>
       </c>
       <c r="D41" s="4">
-        <v>24783319.43580808</v>
+        <v>24783319.435808081</v>
       </c>
       <c r="E41" s="4">
         <v>175568594.8187896</v>
@@ -4977,59 +5028,63 @@
         <v>12044770.03444076</v>
       </c>
       <c r="G41" s="4">
-        <v>38529801.53589562</v>
+        <v>38529801.535895623</v>
       </c>
       <c r="H41" s="4">
-        <v>131262967.0884934</v>
+        <v>131262967.08849341</v>
       </c>
       <c r="I41" s="4">
         <v>22298470.83299749</v>
       </c>
       <c r="J41" s="4">
-        <v>65868908.68166795</v>
+        <v>65868908.681667946</v>
       </c>
       <c r="K41" s="4">
-        <v>45244630.95482725</v>
+        <v>45244630.954827249</v>
       </c>
       <c r="L41" s="4">
         <v>87576165.14957568</v>
       </c>
       <c r="M41" s="4">
-        <v>32184201.31567808</v>
+        <v>32184201.315678079</v>
       </c>
       <c r="N41" s="4">
         <v>28878393.95594475</v>
       </c>
       <c r="O41" s="4">
-        <v>20216369.93715307</v>
+        <v>20216369.937153071</v>
       </c>
       <c r="P41" s="4">
         <v>28487562.56690314</v>
       </c>
       <c r="Q41" s="4">
-        <v>8032578.372129837</v>
+        <v>8032578.3721298371</v>
       </c>
       <c r="R41" s="4">
-        <v>791367874.9861797</v>
+        <v>791367874.98617971</v>
       </c>
       <c r="S41" s="4">
-        <v>39942800.61686387</v>
+        <v>39942800.616863869</v>
       </c>
       <c r="T41" s="4">
         <v>7818350.341937203</v>
       </c>
       <c r="U41" s="4">
-        <v>60703631.90224552</v>
+        <v>60703631.902245522</v>
       </c>
       <c r="V41" s="4">
-        <v>899832657.8472263</v>
+        <v>899832657.84722626</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>